--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -5612,28 +5612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.4071511254656</v>
+        <v>210.9939529664996</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.6315584702247</v>
+        <v>288.6912348448824</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.8568974513914</v>
+        <v>261.1389485720647</v>
       </c>
       <c r="AD2" t="n">
-        <v>174407.1511254656</v>
+        <v>210993.9529664996</v>
       </c>
       <c r="AE2" t="n">
-        <v>238631.5584702247</v>
+        <v>288691.2348448824</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.747867405737396e-06</v>
+        <v>5.084274131950783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.529513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>215856.8974513914</v>
+        <v>261138.9485720647</v>
       </c>
     </row>
     <row r="3">
@@ -5718,28 +5718,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.0146968296839</v>
+        <v>177.5161578161463</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.9425293316468</v>
+        <v>242.8854385841069</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.5283651288297</v>
+        <v>219.7047932175642</v>
       </c>
       <c r="AD3" t="n">
-        <v>141014.6968296839</v>
+        <v>177516.1578161463</v>
       </c>
       <c r="AE3" t="n">
-        <v>192942.5293316468</v>
+        <v>242885.4385841069</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.122953774985064e-06</v>
+        <v>5.778282118082668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.866898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>174528.3651288297</v>
+        <v>219704.7932175642</v>
       </c>
     </row>
     <row r="4">
@@ -5824,28 +5824,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.8036401567869</v>
+        <v>153.1095900381224</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.2348228779976</v>
+        <v>209.4912958084535</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.4152187296982</v>
+        <v>189.4977405594348</v>
       </c>
       <c r="AD4" t="n">
-        <v>128803.6401567869</v>
+        <v>153109.5900381224</v>
       </c>
       <c r="AE4" t="n">
-        <v>176234.8228779976</v>
+        <v>209491.2958084535</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.407078285994569e-06</v>
+        <v>6.30398685134695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.458912037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>159415.2187296982</v>
+        <v>189497.7405594348</v>
       </c>
     </row>
     <row r="5">
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.7961515398694</v>
+        <v>146.1021014212048</v>
       </c>
       <c r="AB5" t="n">
-        <v>166.6468678037567</v>
+        <v>199.9033407342126</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.7423246309603</v>
+        <v>180.8248464606969</v>
       </c>
       <c r="AD5" t="n">
-        <v>121796.1515398694</v>
+        <v>146102.1014212048</v>
       </c>
       <c r="AE5" t="n">
-        <v>166646.8678037567</v>
+        <v>199903.3407342126</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.593571102740364e-06</v>
+        <v>6.649047388837054e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.227430555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>150742.3246309603</v>
+        <v>180824.8464606969</v>
       </c>
     </row>
     <row r="6">
@@ -6036,28 +6036,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.7787218098916</v>
+        <v>140.084671691227</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.4135549769415</v>
+        <v>191.6700279073974</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.2947876248065</v>
+        <v>173.3773094545432</v>
       </c>
       <c r="AD6" t="n">
-        <v>115778.7218098916</v>
+        <v>140084.671691227</v>
       </c>
       <c r="AE6" t="n">
-        <v>158413.5549769415</v>
+        <v>191670.0279073974</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.760106929803422e-06</v>
+        <v>6.95718227038623e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.042245370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>143294.7876248065</v>
+        <v>173377.3094545432</v>
       </c>
     </row>
     <row r="7">
@@ -6142,28 +6142,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>98.84693101589053</v>
+        <v>123.2381322432466</v>
       </c>
       <c r="AB7" t="n">
-        <v>135.2467318347101</v>
+        <v>168.6198494178152</v>
       </c>
       <c r="AC7" t="n">
-        <v>122.3389735684218</v>
+        <v>152.5270076488707</v>
       </c>
       <c r="AD7" t="n">
-        <v>98846.93101589053</v>
+        <v>123238.1322432466</v>
       </c>
       <c r="AE7" t="n">
-        <v>135246.7318347101</v>
+        <v>168619.8494178152</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.891140322588766e-06</v>
+        <v>7.199628353472066e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.90625</v>
       </c>
       <c r="AH7" t="n">
-        <v>122338.9735684218</v>
+        <v>152527.0076488707</v>
       </c>
     </row>
     <row r="8">
@@ -6248,28 +6248,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>96.94178235822896</v>
+        <v>121.332983585585</v>
       </c>
       <c r="AB8" t="n">
-        <v>132.640023392072</v>
+        <v>166.0131409751771</v>
       </c>
       <c r="AC8" t="n">
-        <v>119.98104572101</v>
+        <v>150.1690798014589</v>
       </c>
       <c r="AD8" t="n">
-        <v>96941.78235822896</v>
+        <v>121332.983585585</v>
       </c>
       <c r="AE8" t="n">
-        <v>132640.0233920719</v>
+        <v>166013.1409751771</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.943238569339492e-06</v>
+        <v>7.29602375003365e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>119981.04572101</v>
+        <v>150169.0798014589</v>
       </c>
     </row>
     <row r="9">
@@ -6354,28 +6354,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>97.04264407908157</v>
+        <v>121.4338453064376</v>
       </c>
       <c r="AB9" t="n">
-        <v>132.7780268482475</v>
+        <v>166.1511444313526</v>
       </c>
       <c r="AC9" t="n">
-        <v>120.1058783210173</v>
+        <v>150.2939124014662</v>
       </c>
       <c r="AD9" t="n">
-        <v>97042.64407908157</v>
+        <v>121433.8453064376</v>
       </c>
       <c r="AE9" t="n">
-        <v>132778.0268482475</v>
+        <v>166151.1444313526</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.940350057674885e-06</v>
+        <v>7.290679247200095e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.857060185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>120105.8783210173</v>
+        <v>150293.9124014662</v>
       </c>
     </row>
   </sheetData>
@@ -6651,28 +6651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.4697139725922</v>
+        <v>396.7330026235434</v>
       </c>
       <c r="AB2" t="n">
-        <v>471.3186595885366</v>
+        <v>542.8275968143355</v>
       </c>
       <c r="AC2" t="n">
-        <v>426.3366682172992</v>
+        <v>491.0208928376916</v>
       </c>
       <c r="AD2" t="n">
-        <v>344469.7139725922</v>
+        <v>396733.0026235434</v>
       </c>
       <c r="AE2" t="n">
-        <v>471318.6595885366</v>
+        <v>542827.5968143354</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.772421339870869e-06</v>
+        <v>3.109232375362153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>426336.6682172992</v>
+        <v>491020.8928376916</v>
       </c>
     </row>
     <row r="3">
@@ -6757,28 +6757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>250.5372958986629</v>
+        <v>289.8840417509664</v>
       </c>
       <c r="AB3" t="n">
-        <v>342.7961811738086</v>
+        <v>396.6321347050085</v>
       </c>
       <c r="AC3" t="n">
-        <v>310.0801947601445</v>
+        <v>358.778120445459</v>
       </c>
       <c r="AD3" t="n">
-        <v>250537.2958986629</v>
+        <v>289884.0417509665</v>
       </c>
       <c r="AE3" t="n">
-        <v>342796.1811738086</v>
+        <v>396632.1347050085</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.178981018451766e-06</v>
+        <v>3.822431030063892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.52488425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>310080.1947601445</v>
+        <v>358778.120445459</v>
       </c>
     </row>
     <row r="4">
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.5141820300801</v>
+        <v>246.7755870278083</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.9300587330166</v>
+        <v>337.649245141825</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.8321724259611</v>
+        <v>305.4244750792817</v>
       </c>
       <c r="AD4" t="n">
-        <v>207514.1820300801</v>
+        <v>246775.5870278083</v>
       </c>
       <c r="AE4" t="n">
-        <v>283930.0587330165</v>
+        <v>337649.245141825</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.463287798759848e-06</v>
+        <v>4.321170142476784e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.772569444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>256832.1724259611</v>
+        <v>305424.4750792817</v>
       </c>
     </row>
     <row r="5">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>190.2387546558116</v>
+        <v>229.3295674529477</v>
       </c>
       <c r="AB5" t="n">
-        <v>260.2930568614875</v>
+        <v>313.7788314954492</v>
       </c>
       <c r="AC5" t="n">
-        <v>235.4510528383029</v>
+        <v>283.8322202089723</v>
       </c>
       <c r="AD5" t="n">
-        <v>190238.7546558116</v>
+        <v>229329.5674529477</v>
       </c>
       <c r="AE5" t="n">
-        <v>260293.0568614875</v>
+        <v>313778.8314954492</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.682045798402362e-06</v>
+        <v>4.704921702874674e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.300925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>235451.0528383029</v>
+        <v>283832.2202089723</v>
       </c>
     </row>
     <row r="6">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>165.3524020727128</v>
+        <v>204.5284662158694</v>
       </c>
       <c r="AB6" t="n">
-        <v>226.2424513489194</v>
+        <v>279.8448706355302</v>
       </c>
       <c r="AC6" t="n">
-        <v>204.6501893255184</v>
+        <v>253.1368689469002</v>
       </c>
       <c r="AD6" t="n">
-        <v>165352.4020727128</v>
+        <v>204528.4662158694</v>
       </c>
       <c r="AE6" t="n">
-        <v>226242.4513489194</v>
+        <v>279844.8706355302</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.858005456245992e-06</v>
+        <v>5.013595183958422e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.973958333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>204650.1893255184</v>
+        <v>253136.8689469002</v>
       </c>
     </row>
     <row r="7">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>156.7068775770425</v>
+        <v>195.8829417201992</v>
       </c>
       <c r="AB7" t="n">
-        <v>214.4132633203273</v>
+        <v>268.0156826069382</v>
       </c>
       <c r="AC7" t="n">
-        <v>193.9499624000017</v>
+        <v>242.4366420213835</v>
       </c>
       <c r="AD7" t="n">
-        <v>156706.8775770426</v>
+        <v>195882.9417201992</v>
       </c>
       <c r="AE7" t="n">
-        <v>214413.2633203273</v>
+        <v>268015.6826069382</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.009101783492337e-06</v>
+        <v>5.278652697036479e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.72511574074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>193949.9624000017</v>
+        <v>242436.6420213835</v>
       </c>
     </row>
     <row r="8">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>150.6537097057293</v>
+        <v>176.9133205587864</v>
       </c>
       <c r="AB8" t="n">
-        <v>206.1310519918814</v>
+        <v>242.0606100532847</v>
       </c>
       <c r="AC8" t="n">
-        <v>186.4581936965834</v>
+        <v>218.9586851640693</v>
       </c>
       <c r="AD8" t="n">
-        <v>150653.7097057293</v>
+        <v>176913.3205587864</v>
       </c>
       <c r="AE8" t="n">
-        <v>206131.0519918814</v>
+        <v>242060.6100532847</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.122804840808774e-06</v>
+        <v>5.478113862975545e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.554398148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>186458.1936965834</v>
+        <v>218958.6851640693</v>
       </c>
     </row>
     <row r="9">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>145.4941919032664</v>
+        <v>171.5832105557314</v>
       </c>
       <c r="AB9" t="n">
-        <v>199.0715721126946</v>
+        <v>234.767718399251</v>
       </c>
       <c r="AC9" t="n">
-        <v>180.0724606690217</v>
+        <v>212.3618168538565</v>
       </c>
       <c r="AD9" t="n">
-        <v>145494.1919032664</v>
+        <v>171583.2105557314</v>
       </c>
       <c r="AE9" t="n">
-        <v>199071.5721126946</v>
+        <v>234767.718399251</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.228940797508646e-06</v>
+        <v>5.6643006038694e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.403935185185186</v>
       </c>
       <c r="AH9" t="n">
-        <v>180072.4606690217</v>
+        <v>212361.8168538566</v>
       </c>
     </row>
     <row r="10">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>141.9750872408322</v>
+        <v>168.0641058932971</v>
       </c>
       <c r="AB10" t="n">
-        <v>194.2565778616139</v>
+        <v>229.9527241481703</v>
       </c>
       <c r="AC10" t="n">
-        <v>175.7170027113758</v>
+        <v>208.0063588962105</v>
       </c>
       <c r="AD10" t="n">
-        <v>141975.0872408322</v>
+        <v>168064.1058932971</v>
       </c>
       <c r="AE10" t="n">
-        <v>194256.5778616139</v>
+        <v>229952.7241481703</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.300680842315041e-06</v>
+        <v>5.790149049103209e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.308449074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>175717.0027113758</v>
+        <v>208006.3588962106</v>
       </c>
     </row>
     <row r="11">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>138.2378490340023</v>
+        <v>164.3268676864672</v>
       </c>
       <c r="AB11" t="n">
-        <v>189.1431236717183</v>
+        <v>224.8392699582748</v>
       </c>
       <c r="AC11" t="n">
-        <v>171.0915694125842</v>
+        <v>203.380925597419</v>
       </c>
       <c r="AD11" t="n">
-        <v>138237.8490340023</v>
+        <v>164326.8676864672</v>
       </c>
       <c r="AE11" t="n">
-        <v>189143.1236717183</v>
+        <v>224839.2699582748</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.380331946856936e-06</v>
+        <v>5.929875302338829e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.207175925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>171091.5694125842</v>
+        <v>203380.925597419</v>
       </c>
     </row>
     <row r="12">
@@ -7711,28 +7711,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>135.1064761074214</v>
+        <v>161.1954947598863</v>
       </c>
       <c r="AB12" t="n">
-        <v>184.858641087149</v>
+        <v>220.5547873737054</v>
       </c>
       <c r="AC12" t="n">
-        <v>167.2159918325757</v>
+        <v>199.5053480174105</v>
       </c>
       <c r="AD12" t="n">
-        <v>135106.4761074214</v>
+        <v>161195.4947598864</v>
       </c>
       <c r="AE12" t="n">
-        <v>184858.641087149</v>
+        <v>220554.7873737054</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.44558590542056e-06</v>
+        <v>6.044345668962458e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.126157407407407</v>
       </c>
       <c r="AH12" t="n">
-        <v>167215.9918325757</v>
+        <v>199505.3480174105</v>
       </c>
     </row>
     <row r="13">
@@ -7817,28 +7817,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>116.982723915582</v>
+        <v>156.073447204167</v>
       </c>
       <c r="AB13" t="n">
-        <v>160.0609237747704</v>
+        <v>213.5465759391836</v>
       </c>
       <c r="AC13" t="n">
-        <v>144.7849338566678</v>
+        <v>193.1659904461108</v>
       </c>
       <c r="AD13" t="n">
-        <v>116982.723915582</v>
+        <v>156073.447204167</v>
       </c>
       <c r="AE13" t="n">
-        <v>160060.9237747704</v>
+        <v>213546.5759391836</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.554375261037929e-06</v>
+        <v>6.23518707837866e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.998842592592593</v>
       </c>
       <c r="AH13" t="n">
-        <v>144784.9338566678</v>
+        <v>193165.9904461108</v>
       </c>
     </row>
     <row r="14">
@@ -7923,28 +7923,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>132.1319056910984</v>
+        <v>158.2209243435633</v>
       </c>
       <c r="AB14" t="n">
-        <v>180.7887026147527</v>
+        <v>216.4848489013091</v>
       </c>
       <c r="AC14" t="n">
-        <v>163.5344825757891</v>
+        <v>195.8238387606239</v>
       </c>
       <c r="AD14" t="n">
-        <v>132131.9056910984</v>
+        <v>158220.9243435633</v>
       </c>
       <c r="AE14" t="n">
-        <v>180788.7026147527</v>
+        <v>216484.8489013091</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.511232960120111e-06</v>
+        <v>6.159505616107917e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.048032407407407</v>
       </c>
       <c r="AH14" t="n">
-        <v>163534.4825757891</v>
+        <v>195823.8387606239</v>
       </c>
     </row>
     <row r="15">
@@ -8029,28 +8029,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>115.4880691699028</v>
+        <v>154.5787924584878</v>
       </c>
       <c r="AB15" t="n">
-        <v>158.0158712122195</v>
+        <v>211.5015233766327</v>
       </c>
       <c r="AC15" t="n">
-        <v>142.9350582404368</v>
+        <v>191.3161148298798</v>
       </c>
       <c r="AD15" t="n">
-        <v>115488.0691699028</v>
+        <v>154578.7924584878</v>
       </c>
       <c r="AE15" t="n">
-        <v>158015.8712122195</v>
+        <v>211501.5233766327</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.5724576832905e-06</v>
+        <v>6.266907782382799e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.978587962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>142935.0582404368</v>
+        <v>191316.1148298798</v>
       </c>
     </row>
     <row r="16">
@@ -8135,28 +8135,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>113.2619382873582</v>
+        <v>139.4362082858437</v>
       </c>
       <c r="AB16" t="n">
-        <v>154.9699807287603</v>
+        <v>190.7827716679659</v>
       </c>
       <c r="AC16" t="n">
-        <v>140.1798632697838</v>
+        <v>172.5747317053308</v>
       </c>
       <c r="AD16" t="n">
-        <v>113261.9382873582</v>
+        <v>139436.2082858437</v>
       </c>
       <c r="AE16" t="n">
-        <v>154969.9807287603</v>
+        <v>190782.7716679659</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.620317137839423e-06</v>
+        <v>6.350864210915491e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.92650462962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>140179.8632697838</v>
+        <v>172574.7317053308</v>
       </c>
     </row>
     <row r="17">
@@ -8241,28 +8241,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>112.2250576225088</v>
+        <v>138.3993276209943</v>
       </c>
       <c r="AB17" t="n">
-        <v>153.5512748591676</v>
+        <v>189.3640657983732</v>
       </c>
       <c r="AC17" t="n">
-        <v>138.8965566972184</v>
+        <v>171.2914251327654</v>
       </c>
       <c r="AD17" t="n">
-        <v>112225.0576225088</v>
+        <v>138399.3276209943</v>
       </c>
       <c r="AE17" t="n">
-        <v>153551.2748591676</v>
+        <v>189364.0657983732</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.647637319286242e-06</v>
+        <v>6.398790057182613e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.897569444444445</v>
       </c>
       <c r="AH17" t="n">
-        <v>138896.5566972184</v>
+        <v>171291.4251327654</v>
       </c>
     </row>
     <row r="18">
@@ -8347,28 +8347,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>112.2416043826322</v>
+        <v>138.4158743811177</v>
       </c>
       <c r="AB18" t="n">
-        <v>153.5739148663599</v>
+        <v>189.3867058055656</v>
       </c>
       <c r="AC18" t="n">
-        <v>138.9170359738998</v>
+        <v>171.3119044094468</v>
       </c>
       <c r="AD18" t="n">
-        <v>112241.6043826322</v>
+        <v>138415.8743811177</v>
       </c>
       <c r="AE18" t="n">
-        <v>153573.9148663599</v>
+        <v>189386.7058055656</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.648030415422168e-06</v>
+        <v>6.399479637704442e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.897569444444445</v>
       </c>
       <c r="AH18" t="n">
-        <v>138917.0359738998</v>
+        <v>171311.9044094468</v>
       </c>
     </row>
   </sheetData>
@@ -8644,28 +8644,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.6231075598172</v>
+        <v>139.0184351034965</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.7276602272309</v>
+        <v>190.2111559690267</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.1515466898031</v>
+        <v>172.0576702064306</v>
       </c>
       <c r="AD2" t="n">
-        <v>111623.1075598172</v>
+        <v>139018.4351034965</v>
       </c>
       <c r="AE2" t="n">
-        <v>152727.6602272309</v>
+        <v>190211.1559690267</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.056158378042753e-06</v>
+        <v>7.643220173056918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.493055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>138151.5466898031</v>
+        <v>172057.6702064306</v>
       </c>
     </row>
   </sheetData>
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.49433903108394</v>
+        <v>115.0369816337489</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.9230793414089</v>
+        <v>157.3986733446765</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.7142801902682</v>
+        <v>142.3767648711293</v>
       </c>
       <c r="AD2" t="n">
-        <v>93494.33903108395</v>
+        <v>115036.9816337489</v>
       </c>
       <c r="AE2" t="n">
-        <v>127923.0793414089</v>
+        <v>157398.6733446765</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.178585718267011e-06</v>
+        <v>8.604892447960251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.071180555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>115714.2801902682</v>
+        <v>142376.7648711293</v>
       </c>
     </row>
   </sheetData>
@@ -9238,28 +9238,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.4428943616716</v>
+        <v>220.3288675325144</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.9946609948534</v>
+        <v>301.4636767814628</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.0400828227968</v>
+        <v>272.6924065764567</v>
       </c>
       <c r="AD2" t="n">
-        <v>183442.8943616716</v>
+        <v>220328.8675325144</v>
       </c>
       <c r="AE2" t="n">
-        <v>250994.6609948534</v>
+        <v>301463.6767814627</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.634421515347574e-06</v>
+        <v>4.842915608308154e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.72337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>227040.0828227968</v>
+        <v>272692.4065764567</v>
       </c>
     </row>
     <row r="3">
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.1565702149579</v>
+        <v>183.9572025312291</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.3461114577049</v>
+        <v>251.6983601221166</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.129921171281</v>
+        <v>227.6766218930022</v>
       </c>
       <c r="AD3" t="n">
-        <v>147156.5702149579</v>
+        <v>183957.2025312291</v>
       </c>
       <c r="AE3" t="n">
-        <v>201346.1114577049</v>
+        <v>251698.3601221166</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.018733936297424e-06</v>
+        <v>5.549405671132882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.994212962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>182129.921171281</v>
+        <v>227676.6218930022</v>
       </c>
     </row>
     <row r="4">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.6903273207851</v>
+        <v>159.3663169559186</v>
       </c>
       <c r="AB4" t="n">
-        <v>184.2892479580847</v>
+        <v>218.0520256046886</v>
       </c>
       <c r="AC4" t="n">
-        <v>166.7009407846009</v>
+        <v>197.2414463189797</v>
       </c>
       <c r="AD4" t="n">
-        <v>134690.3273207851</v>
+        <v>159366.3169559186</v>
       </c>
       <c r="AE4" t="n">
-        <v>184289.2479580847</v>
+        <v>218052.0256046886</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.285209310357172e-06</v>
+        <v>6.039273272329359e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.58912037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>166700.9407846009</v>
+        <v>197241.4463189797</v>
       </c>
     </row>
     <row r="5">
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.6395990079765</v>
+        <v>150.1449964425177</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.9056421905534</v>
+        <v>205.4350080623105</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.499208971019</v>
+        <v>185.8285792227468</v>
       </c>
       <c r="AD5" t="n">
-        <v>125639.5990079765</v>
+        <v>150144.9964425177</v>
       </c>
       <c r="AE5" t="n">
-        <v>171905.6421905534</v>
+        <v>205435.0080623105</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.511502303544621e-06</v>
+        <v>6.455272709918859e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.293981481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>155499.208971019</v>
+        <v>185828.5792227468</v>
       </c>
     </row>
     <row r="6">
@@ -9662,28 +9662,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.0565130687994</v>
+        <v>144.5619105033407</v>
       </c>
       <c r="AB6" t="n">
-        <v>164.2666177002072</v>
+        <v>197.7959835719642</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.5892422565908</v>
+        <v>178.9186125083185</v>
       </c>
       <c r="AD6" t="n">
-        <v>120056.5130687994</v>
+        <v>144561.9105033407</v>
       </c>
       <c r="AE6" t="n">
-        <v>164266.6177002072</v>
+        <v>197795.9835719642</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.662538023087972e-06</v>
+        <v>6.732925029157544e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.117476851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>148589.2422565907</v>
+        <v>178918.6125083185</v>
       </c>
     </row>
     <row r="7">
@@ -9768,28 +9768,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.8353918175362</v>
+        <v>139.5506832792358</v>
       </c>
       <c r="AB7" t="n">
-        <v>140.703919861991</v>
+        <v>190.9394014042052</v>
       </c>
       <c r="AC7" t="n">
-        <v>127.2753352295923</v>
+        <v>172.7164129193746</v>
       </c>
       <c r="AD7" t="n">
-        <v>102835.3918175362</v>
+        <v>139550.6832792358</v>
       </c>
       <c r="AE7" t="n">
-        <v>140703.919861991</v>
+        <v>190939.4014042052</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.794498838092721e-06</v>
+        <v>6.975511527539997e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.975694444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>127275.3352295923</v>
+        <v>172716.4129193746</v>
       </c>
     </row>
     <row r="8">
@@ -9874,28 +9874,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>99.2187823060942</v>
+        <v>123.809431086656</v>
       </c>
       <c r="AB8" t="n">
-        <v>135.7555151748876</v>
+        <v>169.4015256992939</v>
       </c>
       <c r="AC8" t="n">
-        <v>122.7991993406949</v>
+        <v>153.2340818431348</v>
       </c>
       <c r="AD8" t="n">
-        <v>99218.7823060942</v>
+        <v>123809.431086656</v>
       </c>
       <c r="AE8" t="n">
-        <v>135755.5151748876</v>
+        <v>169401.5256992939</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.889821243560211e-06</v>
+        <v>7.150744823567448e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.877314814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>122799.1993406949</v>
+        <v>153234.0818431348</v>
       </c>
     </row>
     <row r="9">
@@ -9980,28 +9980,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>98.73258391057571</v>
+        <v>123.3232326911376</v>
       </c>
       <c r="AB9" t="n">
-        <v>135.0902770805802</v>
+        <v>168.7362876049864</v>
       </c>
       <c r="AC9" t="n">
-        <v>122.1974506364404</v>
+        <v>152.6323331388804</v>
       </c>
       <c r="AD9" t="n">
-        <v>98732.58391057572</v>
+        <v>123323.2326911376</v>
       </c>
       <c r="AE9" t="n">
-        <v>135090.2770805802</v>
+        <v>168736.2876049864</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.896388013975139e-06</v>
+        <v>7.162816663534348e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.871527777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>122197.4506364404</v>
+        <v>152632.3331388804</v>
       </c>
     </row>
     <row r="10">
@@ -10086,28 +10086,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>98.27057909055284</v>
+        <v>122.8612278711147</v>
       </c>
       <c r="AB10" t="n">
-        <v>134.4581417036111</v>
+        <v>168.1041522280173</v>
       </c>
       <c r="AC10" t="n">
-        <v>121.6256453726414</v>
+        <v>152.0605278750814</v>
       </c>
       <c r="AD10" t="n">
-        <v>98270.57909055284</v>
+        <v>122861.2278711147</v>
       </c>
       <c r="AE10" t="n">
-        <v>134458.1417036111</v>
+        <v>168104.1522280173</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.918589952044659e-06</v>
+        <v>7.203630979612912e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.84837962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>121625.6453726414</v>
+        <v>152060.5278750814</v>
       </c>
     </row>
   </sheetData>
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.8307471580326</v>
+        <v>126.2681104695589</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.065808950836</v>
+        <v>172.7655993002588</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.5072475352217</v>
+        <v>156.2770929811317</v>
       </c>
       <c r="AD2" t="n">
-        <v>103830.7471580326</v>
+        <v>126268.1104695589</v>
       </c>
       <c r="AE2" t="n">
-        <v>142065.808950836</v>
+        <v>172765.5993002588</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.917636302293181e-06</v>
+        <v>7.761558797846876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.181134259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>128507.2475352217</v>
+        <v>156277.0929811317</v>
       </c>
     </row>
     <row r="3">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.45932988513428</v>
+        <v>108.9819445426811</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.2974694652262</v>
+        <v>149.1139044672983</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.007325011037</v>
+        <v>134.8826827076592</v>
       </c>
       <c r="AD3" t="n">
-        <v>86459.32988513428</v>
+        <v>108981.9445426811</v>
       </c>
       <c r="AE3" t="n">
-        <v>118297.4694652262</v>
+        <v>149113.9044672982</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.1460179261916e-06</v>
+        <v>8.214024842537586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.949652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>107007.325011037</v>
+        <v>134882.6827076592</v>
       </c>
     </row>
     <row r="4">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.2947868708295</v>
+        <v>108.8174015283763</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.072334453929</v>
+        <v>148.8887694560011</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.8036765692389</v>
+        <v>134.6790342658612</v>
       </c>
       <c r="AD4" t="n">
-        <v>86294.7868708295</v>
+        <v>108817.4015283763</v>
       </c>
       <c r="AE4" t="n">
-        <v>118072.334453929</v>
+        <v>148888.7694560011</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.157507757579799e-06</v>
+        <v>8.236788313930948e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.938078703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>106803.6765692389</v>
+        <v>134679.0342658612</v>
       </c>
     </row>
   </sheetData>
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.3251247096945</v>
+        <v>317.8490229004976</v>
       </c>
       <c r="AB2" t="n">
-        <v>382.1849585825968</v>
+        <v>434.8950556416932</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.7097625354313</v>
+        <v>393.3892819102934</v>
       </c>
       <c r="AD2" t="n">
-        <v>279325.1247096945</v>
+        <v>317849.0229004976</v>
       </c>
       <c r="AE2" t="n">
-        <v>382184.9585825968</v>
+        <v>434895.0556416932</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.035627802713373e-06</v>
+        <v>3.620316307594152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.112268518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>345709.7625354312</v>
+        <v>393389.2819102934</v>
       </c>
     </row>
     <row r="3">
@@ -10998,28 +10998,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.4942945056715</v>
+        <v>258.6886910395336</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.9028477447451</v>
+        <v>353.9492796198829</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.8075584162195</v>
+        <v>320.1688571438945</v>
       </c>
       <c r="AD3" t="n">
-        <v>207494.2945056715</v>
+        <v>258688.6910395336</v>
       </c>
       <c r="AE3" t="n">
-        <v>283902.8477447451</v>
+        <v>353949.2796198829</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.42472426023585e-06</v>
+        <v>4.312315232209982e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.969328703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>256807.5584162195</v>
+        <v>320168.8571438945</v>
       </c>
     </row>
     <row r="4">
@@ -11104,28 +11104,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.9821321983402</v>
+        <v>222.3353486799996</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.7324699924773</v>
+        <v>304.2090328071515</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.7074763652091</v>
+        <v>275.1757496761859</v>
       </c>
       <c r="AD4" t="n">
-        <v>183982.1321983402</v>
+        <v>222335.3486799996</v>
       </c>
       <c r="AE4" t="n">
-        <v>251732.4699924774</v>
+        <v>304209.0328071514</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.718072373749838e-06</v>
+        <v>4.834027972496329e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.324074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>227707.4763652091</v>
+        <v>275175.7496761859</v>
       </c>
     </row>
     <row r="5">
@@ -11210,28 +11210,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>157.6548961644297</v>
+        <v>196.0933639921096</v>
       </c>
       <c r="AB5" t="n">
-        <v>215.7103841752181</v>
+        <v>268.3035916425413</v>
       </c>
       <c r="AC5" t="n">
-        <v>195.1232878610227</v>
+        <v>242.6970734227117</v>
       </c>
       <c r="AD5" t="n">
-        <v>157654.8961644297</v>
+        <v>196093.3639921096</v>
       </c>
       <c r="AE5" t="n">
-        <v>215710.3841752181</v>
+        <v>268303.5916425413</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.935131968657273e-06</v>
+        <v>5.220063371558824e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>195123.2878610227</v>
+        <v>242697.0734227117</v>
       </c>
     </row>
     <row r="6">
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>149.0237667208195</v>
+        <v>187.4622345484994</v>
       </c>
       <c r="AB6" t="n">
-        <v>203.9008920919194</v>
+        <v>256.4940995592427</v>
       </c>
       <c r="AC6" t="n">
-        <v>184.440877127424</v>
+        <v>232.0146626891131</v>
       </c>
       <c r="AD6" t="n">
-        <v>149023.7667208195</v>
+        <v>187462.2345484994</v>
       </c>
       <c r="AE6" t="n">
-        <v>203900.8920919194</v>
+        <v>256494.0995592427</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.095913148199217e-06</v>
+        <v>5.506008928734869e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.675925925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>184440.8771274241</v>
+        <v>232014.6626891131</v>
       </c>
     </row>
     <row r="7">
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>141.8505347626912</v>
+        <v>167.4478225381717</v>
       </c>
       <c r="AB7" t="n">
-        <v>194.086159666154</v>
+        <v>229.1094980731854</v>
       </c>
       <c r="AC7" t="n">
-        <v>175.5628489893071</v>
+        <v>207.2436091343467</v>
       </c>
       <c r="AD7" t="n">
-        <v>141850.5347626912</v>
+        <v>167447.8225381717</v>
       </c>
       <c r="AE7" t="n">
-        <v>194086.159666154</v>
+        <v>229109.4980731854</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.245738796216678e-06</v>
+        <v>5.772470330023685e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.458912037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>175562.8489893071</v>
+        <v>207243.6091343467</v>
       </c>
     </row>
     <row r="8">
@@ -11528,28 +11528,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>137.2315607825951</v>
+        <v>162.8288485580755</v>
       </c>
       <c r="AB8" t="n">
-        <v>187.7662756918393</v>
+        <v>222.7896140988707</v>
       </c>
       <c r="AC8" t="n">
-        <v>169.8461258714861</v>
+        <v>201.5268860165257</v>
       </c>
       <c r="AD8" t="n">
-        <v>137231.5607825951</v>
+        <v>162828.8485580756</v>
       </c>
       <c r="AE8" t="n">
-        <v>187766.2756918393</v>
+        <v>222789.6140988707</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.346489666035433e-06</v>
+        <v>5.951653389187516e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.325810185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>169846.1258714861</v>
+        <v>201526.8860165257</v>
       </c>
     </row>
     <row r="9">
@@ -11634,28 +11634,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>132.487109807489</v>
+        <v>158.0843975829694</v>
       </c>
       <c r="AB9" t="n">
-        <v>181.2747085572978</v>
+        <v>216.2980469643292</v>
       </c>
       <c r="AC9" t="n">
-        <v>163.9741047932915</v>
+        <v>195.6548649383311</v>
       </c>
       <c r="AD9" t="n">
-        <v>132487.109807489</v>
+        <v>158084.3975829695</v>
       </c>
       <c r="AE9" t="n">
-        <v>181274.7085572978</v>
+        <v>216298.0469643292</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.458896420992105e-06</v>
+        <v>6.151566166715385e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.184027777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>163974.1047932915</v>
+        <v>195654.8649383311</v>
       </c>
     </row>
     <row r="10">
@@ -11740,28 +11740,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>128.8929192431912</v>
+        <v>154.4902070186717</v>
       </c>
       <c r="AB10" t="n">
-        <v>176.3569784627313</v>
+        <v>211.3803168697627</v>
       </c>
       <c r="AC10" t="n">
-        <v>159.5257159568713</v>
+        <v>191.2064761019109</v>
       </c>
       <c r="AD10" t="n">
-        <v>128892.9192431913</v>
+        <v>154490.2070186717</v>
       </c>
       <c r="AE10" t="n">
-        <v>176356.9784627313</v>
+        <v>211380.3168697627</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.539787263344104e-06</v>
+        <v>6.295428632786842e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.088541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>159525.7159568713</v>
+        <v>191206.4761019109</v>
       </c>
     </row>
     <row r="11">
@@ -11846,28 +11846,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>111.9864493008628</v>
+        <v>150.3395762739711</v>
       </c>
       <c r="AB11" t="n">
-        <v>153.2248004268354</v>
+        <v>205.7012407719611</v>
       </c>
       <c r="AC11" t="n">
-        <v>138.6012405264982</v>
+        <v>186.0694030562484</v>
       </c>
       <c r="AD11" t="n">
-        <v>111986.4493008628</v>
+        <v>150339.5762739711</v>
       </c>
       <c r="AE11" t="n">
-        <v>153224.8004268354</v>
+        <v>205701.2407719611</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.634685177964847e-06</v>
+        <v>6.464202348394483e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.981481481481481</v>
       </c>
       <c r="AH11" t="n">
-        <v>138601.2405264982</v>
+        <v>186069.4030562484</v>
       </c>
     </row>
     <row r="12">
@@ -11952,28 +11952,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>109.6703994113319</v>
+        <v>135.3529385328329</v>
       </c>
       <c r="AB12" t="n">
-        <v>150.055878791071</v>
+        <v>185.1958618507516</v>
       </c>
       <c r="AC12" t="n">
-        <v>135.7347563240407</v>
+        <v>167.5210287197926</v>
       </c>
       <c r="AD12" t="n">
-        <v>109670.3994113319</v>
+        <v>135352.9385328329</v>
       </c>
       <c r="AE12" t="n">
-        <v>150055.878791071</v>
+        <v>185195.8618507516</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.684510335035095e-06</v>
+        <v>6.552815221744621e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.929398148148148</v>
       </c>
       <c r="AH12" t="n">
-        <v>135734.7563240407</v>
+        <v>167521.0287197925</v>
       </c>
     </row>
     <row r="13">
@@ -12058,28 +12058,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>108.0595818653411</v>
+        <v>133.7421209868421</v>
       </c>
       <c r="AB13" t="n">
-        <v>147.8518871603929</v>
+        <v>182.9918702200735</v>
       </c>
       <c r="AC13" t="n">
-        <v>133.7411105612721</v>
+        <v>165.527382957024</v>
       </c>
       <c r="AD13" t="n">
-        <v>108059.5818653411</v>
+        <v>133742.1209868421</v>
       </c>
       <c r="AE13" t="n">
-        <v>147851.8871603929</v>
+        <v>182991.8702200735</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.71452548989669e-06</v>
+        <v>6.606196470750727e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.897569444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>133741.1105612721</v>
+        <v>165527.382957024</v>
       </c>
     </row>
     <row r="14">
@@ -12164,28 +12164,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>107.1631941407268</v>
+        <v>132.8457332622278</v>
       </c>
       <c r="AB14" t="n">
-        <v>146.6254099297408</v>
+        <v>181.7653929894214</v>
       </c>
       <c r="AC14" t="n">
-        <v>132.6316865961415</v>
+        <v>164.4179589918933</v>
       </c>
       <c r="AD14" t="n">
-        <v>107163.1941407268</v>
+        <v>132845.7332622278</v>
       </c>
       <c r="AE14" t="n">
-        <v>146625.4099297408</v>
+        <v>181765.3929894214</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.736736704494269e-06</v>
+        <v>6.645698595015245e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.874421296296296</v>
       </c>
       <c r="AH14" t="n">
-        <v>132631.6865961415</v>
+        <v>164417.9589918933</v>
       </c>
     </row>
     <row r="15">
@@ -12270,28 +12270,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>107.0926172943074</v>
+        <v>132.7751564158085</v>
       </c>
       <c r="AB15" t="n">
-        <v>146.5288435748391</v>
+        <v>181.6688266345197</v>
       </c>
       <c r="AC15" t="n">
-        <v>132.5443363986198</v>
+        <v>164.3306087943717</v>
       </c>
       <c r="AD15" t="n">
-        <v>107092.6172943074</v>
+        <v>132775.1564158085</v>
       </c>
       <c r="AE15" t="n">
-        <v>146528.8435748391</v>
+        <v>181668.8266345197</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.738037361204939e-06</v>
+        <v>6.648011782472177e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.871527777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>132544.3363986198</v>
+        <v>164330.6087943717</v>
       </c>
     </row>
   </sheetData>
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.6709168431437</v>
+        <v>165.8767123867233</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.7897132187031</v>
+        <v>226.9598358514867</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.7262739220986</v>
+        <v>205.2991076580164</v>
       </c>
       <c r="AD2" t="n">
-        <v>130670.9168431437</v>
+        <v>165876.7123867233</v>
       </c>
       <c r="AE2" t="n">
-        <v>178789.7132187031</v>
+        <v>226959.8358514867</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.26346703192568e-06</v>
+        <v>6.22067182154522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>161726.2739220986</v>
+        <v>205299.1076580164</v>
       </c>
     </row>
     <row r="3">
@@ -12673,28 +12673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.7072447078565</v>
+        <v>140.1494176272701</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.6840009694756</v>
+        <v>191.7586161534805</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.4439840348958</v>
+        <v>173.4574429627546</v>
       </c>
       <c r="AD3" t="n">
-        <v>116707.2447078565</v>
+        <v>140149.4176272701</v>
       </c>
       <c r="AE3" t="n">
-        <v>159684.0009694757</v>
+        <v>191758.6161534805</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.636059042729207e-06</v>
+        <v>6.930889697155481e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>144443.9840348958</v>
+        <v>173457.4429627546</v>
       </c>
     </row>
     <row r="4">
@@ -12779,28 +12779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.2511405944458</v>
+        <v>131.6933135138594</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.1139862645285</v>
+        <v>180.1886014485334</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.9781952947675</v>
+        <v>162.9916542226263</v>
       </c>
       <c r="AD4" t="n">
-        <v>108251.1405944458</v>
+        <v>131693.3135138594</v>
       </c>
       <c r="AE4" t="n">
-        <v>148113.9862645285</v>
+        <v>180188.6014485334</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.89972031838239e-06</v>
+        <v>7.433468780027542e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.030671296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>133978.1952947675</v>
+        <v>162991.6542226263</v>
       </c>
     </row>
     <row r="5">
@@ -12885,28 +12885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.94597278436213</v>
+        <v>115.4733970497963</v>
       </c>
       <c r="AB5" t="n">
-        <v>125.8045363335474</v>
+        <v>157.9957961702015</v>
       </c>
       <c r="AC5" t="n">
-        <v>113.7979279536825</v>
+        <v>142.9168991322535</v>
       </c>
       <c r="AD5" t="n">
-        <v>91945.97278436212</v>
+        <v>115473.3970497963</v>
       </c>
       <c r="AE5" t="n">
-        <v>125804.5363335474</v>
+        <v>157995.7961702015</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.04673606367757e-06</v>
+        <v>7.713703479852764e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.88599537037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>113797.9279536825</v>
+        <v>142916.8991322535</v>
       </c>
     </row>
     <row r="6">
@@ -12991,28 +12991,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.51087246510177</v>
+        <v>115.0382967305359</v>
       </c>
       <c r="AB6" t="n">
-        <v>125.2092128814643</v>
+        <v>157.4004727181185</v>
       </c>
       <c r="AC6" t="n">
-        <v>113.2594213363243</v>
+        <v>142.3783925148954</v>
       </c>
       <c r="AD6" t="n">
-        <v>91510.87246510177</v>
+        <v>115038.2967305359</v>
       </c>
       <c r="AE6" t="n">
-        <v>125209.2128814643</v>
+        <v>157400.4727181185</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.062545960898891e-06</v>
+        <v>7.743839583935963e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.868634259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>113259.4213363243</v>
+        <v>142378.3925148954</v>
       </c>
     </row>
   </sheetData>
@@ -13288,28 +13288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.501053039844</v>
+        <v>252.8755655807996</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.8580480044509</v>
+        <v>345.9955049100843</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.7172097388626</v>
+        <v>312.9741795293101</v>
       </c>
       <c r="AD2" t="n">
-        <v>215501.053039844</v>
+        <v>252875.5655807996</v>
       </c>
       <c r="AE2" t="n">
-        <v>294858.0480044509</v>
+        <v>345995.5049100843</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.425647210778687e-06</v>
+        <v>4.405791688050213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.128472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>266717.2097388626</v>
+        <v>312974.1795293101</v>
       </c>
     </row>
     <row r="3">
@@ -13394,28 +13394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.4591719379424</v>
+        <v>210.7483436243265</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.3344915239661</v>
+        <v>288.3551813074018</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.6836207540384</v>
+        <v>260.8349675125471</v>
       </c>
       <c r="AD3" t="n">
-        <v>173459.1719379424</v>
+        <v>210748.3436243265</v>
       </c>
       <c r="AE3" t="n">
-        <v>237334.4915239661</v>
+        <v>288355.1813074019</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.813450794578854e-06</v>
+        <v>5.110173511800406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.283564814814816</v>
       </c>
       <c r="AH3" t="n">
-        <v>214683.6207540384</v>
+        <v>260834.9675125471</v>
       </c>
     </row>
     <row r="4">
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.5850779051876</v>
+        <v>182.9595009375922</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.1959263501304</v>
+        <v>250.3332607862154</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.184946712569</v>
+        <v>226.44180572179</v>
       </c>
       <c r="AD4" t="n">
-        <v>145585.0779051876</v>
+        <v>182959.5009375922</v>
       </c>
       <c r="AE4" t="n">
-        <v>199195.9263501304</v>
+        <v>250333.2607862154</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.090460692252271e-06</v>
+        <v>5.613316713851371e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>180184.946712569</v>
+        <v>226441.80572179</v>
       </c>
     </row>
     <row r="5">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.0449292607747</v>
+        <v>161.1034460399971</v>
       </c>
       <c r="AB5" t="n">
-        <v>186.1426740931974</v>
+        <v>220.4288422542501</v>
       </c>
       <c r="AC5" t="n">
-        <v>168.377478530679</v>
+        <v>199.3914229233909</v>
       </c>
       <c r="AD5" t="n">
-        <v>136044.9292607747</v>
+        <v>161103.4460399971</v>
       </c>
       <c r="AE5" t="n">
-        <v>186142.6740931974</v>
+        <v>220428.8422542501</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.297152297710797e-06</v>
+        <v>5.988738231569355e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.508101851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>168377.478530679</v>
+        <v>199391.4229233909</v>
       </c>
     </row>
     <row r="6">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.0127241146486</v>
+        <v>153.9006486932789</v>
       </c>
       <c r="AB6" t="n">
-        <v>176.5209007732771</v>
+        <v>210.5736571594829</v>
       </c>
       <c r="AC6" t="n">
-        <v>159.6739937521651</v>
+        <v>190.476802862226</v>
       </c>
       <c r="AD6" t="n">
-        <v>129012.7241146486</v>
+        <v>153900.6486932789</v>
       </c>
       <c r="AE6" t="n">
-        <v>176520.9007732771</v>
+        <v>210573.6571594829</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.463779426962154e-06</v>
+        <v>6.291389176767451e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.291087962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>159673.9937521651</v>
+        <v>190476.802862226</v>
       </c>
     </row>
     <row r="7">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>124.2199943079206</v>
+        <v>149.1079188865508</v>
       </c>
       <c r="AB7" t="n">
-        <v>169.9632764113987</v>
+        <v>204.0160327976045</v>
       </c>
       <c r="AC7" t="n">
-        <v>153.7422198556987</v>
+        <v>184.5450289657596</v>
       </c>
       <c r="AD7" t="n">
-        <v>124219.9943079206</v>
+        <v>149107.9188865508</v>
       </c>
       <c r="AE7" t="n">
-        <v>169963.2764113987</v>
+        <v>204016.0327976045</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.587773844352034e-06</v>
+        <v>6.516604769155922e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.143518518518518</v>
       </c>
       <c r="AH7" t="n">
-        <v>153742.2198556987</v>
+        <v>184545.0289657596</v>
       </c>
     </row>
     <row r="8">
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.7242760449227</v>
+        <v>144.6122006235529</v>
       </c>
       <c r="AB8" t="n">
-        <v>163.8120363468762</v>
+        <v>197.8647927330821</v>
       </c>
       <c r="AC8" t="n">
-        <v>148.1780455096126</v>
+        <v>178.9808546196736</v>
       </c>
       <c r="AD8" t="n">
-        <v>119724.2760449227</v>
+        <v>144612.2006235529</v>
       </c>
       <c r="AE8" t="n">
-        <v>163812.0363468762</v>
+        <v>197864.7927330821</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.70390946063974e-06</v>
+        <v>6.727546133857802e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.013310185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>148178.0455096126</v>
+        <v>178980.8546196736</v>
       </c>
     </row>
     <row r="9">
@@ -14030,28 +14030,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>103.0004627610268</v>
+        <v>127.9736386856776</v>
       </c>
       <c r="AB9" t="n">
-        <v>140.9297772092908</v>
+        <v>175.0991782481459</v>
       </c>
       <c r="AC9" t="n">
-        <v>127.4796370686587</v>
+        <v>158.3879584294318</v>
       </c>
       <c r="AD9" t="n">
-        <v>103000.4627610268</v>
+        <v>127973.6386856776</v>
       </c>
       <c r="AE9" t="n">
-        <v>140929.7772092908</v>
+        <v>175099.1782481459</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.812391734677615e-06</v>
+        <v>6.924586453296267e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.897569444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>127479.6370686587</v>
+        <v>158387.9584294318</v>
       </c>
     </row>
     <row r="10">
@@ -14136,28 +14136,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>101.0954289652621</v>
+        <v>126.0686048899129</v>
       </c>
       <c r="AB10" t="n">
-        <v>138.3232259257672</v>
+        <v>172.4926269646223</v>
       </c>
       <c r="AC10" t="n">
-        <v>125.121851381316</v>
+        <v>156.0301727420892</v>
       </c>
       <c r="AD10" t="n">
-        <v>101095.4289652621</v>
+        <v>126068.6048899129</v>
       </c>
       <c r="AE10" t="n">
-        <v>138323.2259257672</v>
+        <v>172492.6269646223</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.859852729569185e-06</v>
+        <v>7.010791593050595e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.851273148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>125121.8513813161</v>
+        <v>156030.1727420892</v>
       </c>
     </row>
     <row r="11">
@@ -14242,28 +14242,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>100.9908487882061</v>
+        <v>125.9640247128569</v>
       </c>
       <c r="AB11" t="n">
-        <v>138.1801347137676</v>
+        <v>172.3495357526226</v>
       </c>
       <c r="AC11" t="n">
-        <v>124.9924165937598</v>
+        <v>155.900737954533</v>
       </c>
       <c r="AD11" t="n">
-        <v>100990.8487882061</v>
+        <v>125964.0247128569</v>
       </c>
       <c r="AE11" t="n">
-        <v>138180.1347137676</v>
+        <v>172349.5357526226</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.86627331870495e-06</v>
+        <v>7.022453543774937e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.845486111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>124992.4165937598</v>
+        <v>155900.737954533</v>
       </c>
     </row>
   </sheetData>
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.84054958206252</v>
+        <v>111.6821832184234</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.292047540332</v>
+        <v>152.8084901495699</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.4297889680997</v>
+        <v>138.2246623177997</v>
       </c>
       <c r="AD2" t="n">
-        <v>90840.54958206252</v>
+        <v>111682.1832184234</v>
       </c>
       <c r="AE2" t="n">
-        <v>124292.047540332</v>
+        <v>152808.4901495699</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.152552277203129e-06</v>
+        <v>8.843849615327016e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.224537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>112429.7889680997</v>
+        <v>138224.6623177997</v>
       </c>
     </row>
   </sheetData>
@@ -14836,28 +14836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.61177598347849</v>
+        <v>116.4701167298583</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.4520058775134</v>
+        <v>159.3595520086306</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.0972881236292</v>
+        <v>144.1505000275067</v>
       </c>
       <c r="AD2" t="n">
-        <v>94611.7759834785</v>
+        <v>116470.1167298583</v>
       </c>
       <c r="AE2" t="n">
-        <v>129452.0058775134</v>
+        <v>159359.5520086306</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.188073549080042e-06</v>
+        <v>8.503237254262253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.007523148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>117097.2881236292</v>
+        <v>144150.5000275067</v>
       </c>
     </row>
     <row r="3">
@@ -14942,28 +14942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.7565764913128</v>
+        <v>116.6149172376926</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.6501283204798</v>
+        <v>159.5576744515969</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.2765020387055</v>
+        <v>144.329713942583</v>
       </c>
       <c r="AD3" t="n">
-        <v>94756.57649131279</v>
+        <v>116614.9172376926</v>
       </c>
       <c r="AE3" t="n">
-        <v>129650.1283204798</v>
+        <v>159557.6744515969</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.184883718508955e-06</v>
+        <v>8.496760795377519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>117276.5020387055</v>
+        <v>144329.713942583</v>
       </c>
     </row>
   </sheetData>
@@ -15239,28 +15239,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.0846253838466</v>
+        <v>346.6138631830092</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.7478026650725</v>
+        <v>474.2523791314162</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.2146790423171</v>
+        <v>428.9903976845076</v>
       </c>
       <c r="AD2" t="n">
-        <v>295084.6253838466</v>
+        <v>346613.8631830092</v>
       </c>
       <c r="AE2" t="n">
-        <v>403747.8026650725</v>
+        <v>474252.3791314162</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.945020371276479e-06</v>
+        <v>3.442783127463228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>365214.6790423171</v>
+        <v>428990.3976845077</v>
       </c>
     </row>
     <row r="3">
@@ -15345,28 +15345,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.2187000039603</v>
+        <v>267.9083211577586</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.627137760618</v>
+        <v>366.5639842890129</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.6950039112901</v>
+        <v>331.5796321042519</v>
       </c>
       <c r="AD3" t="n">
-        <v>229218.7000039603</v>
+        <v>267908.3211577586</v>
       </c>
       <c r="AE3" t="n">
-        <v>313627.1377606181</v>
+        <v>366563.9842890128</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.34625540185422e-06</v>
+        <v>4.15298915605802e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.131365740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>283695.0039112901</v>
+        <v>331579.6321042519</v>
       </c>
     </row>
     <row r="4">
@@ -15451,28 +15451,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.0834211069181</v>
+        <v>229.6877014061415</v>
       </c>
       <c r="AB4" t="n">
-        <v>261.4487667639448</v>
+        <v>314.2688461699636</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.496463409719</v>
+        <v>284.2754685706913</v>
       </c>
       <c r="AD4" t="n">
-        <v>191083.4211069181</v>
+        <v>229687.7014061415</v>
       </c>
       <c r="AE4" t="n">
-        <v>261448.7667639448</v>
+        <v>314268.8461699636</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.636019684159928e-06</v>
+        <v>4.665886397030813e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.457175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>236496.463409719</v>
+        <v>284275.4685706913</v>
       </c>
     </row>
     <row r="5">
@@ -15557,28 +15557,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.9071902499061</v>
+        <v>202.7571947583342</v>
       </c>
       <c r="AB5" t="n">
-        <v>242.0522222942245</v>
+        <v>277.4213388843501</v>
       </c>
       <c r="AC5" t="n">
-        <v>218.9510979209616</v>
+        <v>250.9446356646037</v>
       </c>
       <c r="AD5" t="n">
-        <v>176907.1902499061</v>
+        <v>202757.1947583342</v>
       </c>
       <c r="AE5" t="n">
-        <v>242052.2222942245</v>
+        <v>277421.3388843501</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.847824049743716e-06</v>
+        <v>5.040790694653342e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.052083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>218951.0979209616</v>
+        <v>250944.6356646037</v>
       </c>
     </row>
     <row r="6">
@@ -15663,28 +15663,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>154.02610878993</v>
+        <v>192.7156404351739</v>
       </c>
       <c r="AB6" t="n">
-        <v>210.7453171986298</v>
+        <v>263.6820412572979</v>
       </c>
       <c r="AC6" t="n">
-        <v>190.6320799081632</v>
+        <v>238.5165973198477</v>
       </c>
       <c r="AD6" t="n">
-        <v>154026.10878993</v>
+        <v>192715.6404351739</v>
       </c>
       <c r="AE6" t="n">
-        <v>210745.3171986298</v>
+        <v>263682.0412572979</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.019654070273663e-06</v>
+        <v>5.344938406527395e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>190632.0799081632</v>
+        <v>238516.5973198477</v>
       </c>
     </row>
     <row r="7">
@@ -15769,28 +15769,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>147.1512278386049</v>
+        <v>173.0864836930536</v>
       </c>
       <c r="AB7" t="n">
-        <v>201.3388017826897</v>
+        <v>236.8245630254644</v>
       </c>
       <c r="AC7" t="n">
-        <v>182.12330912139</v>
+        <v>214.2223591157444</v>
       </c>
       <c r="AD7" t="n">
-        <v>147151.2278386049</v>
+        <v>173086.4836930536</v>
       </c>
       <c r="AE7" t="n">
-        <v>201338.8017826897</v>
+        <v>236824.5630254644</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.156083924537023e-06</v>
+        <v>5.586426057390357e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>182123.30912139</v>
+        <v>214222.3591157444</v>
       </c>
     </row>
     <row r="8">
@@ -15875,28 +15875,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>141.1482807540422</v>
+        <v>166.9129444078986</v>
       </c>
       <c r="AB8" t="n">
-        <v>193.1253047502604</v>
+        <v>228.3776542181884</v>
       </c>
       <c r="AC8" t="n">
-        <v>174.6936967180177</v>
+        <v>206.5816114297211</v>
       </c>
       <c r="AD8" t="n">
-        <v>141148.2807540421</v>
+        <v>166912.9444078986</v>
       </c>
       <c r="AE8" t="n">
-        <v>193125.3047502604</v>
+        <v>228377.6542181884</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.281277209170821e-06</v>
+        <v>5.808024419224519e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.383680555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>174693.6967180177</v>
+        <v>206581.6114297211</v>
       </c>
     </row>
     <row r="9">
@@ -15981,28 +15981,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>136.8858497306857</v>
+        <v>162.6505133845421</v>
       </c>
       <c r="AB9" t="n">
-        <v>187.2932585789219</v>
+        <v>222.5456080468498</v>
       </c>
       <c r="AC9" t="n">
-        <v>169.4182528479417</v>
+        <v>201.306167559645</v>
       </c>
       <c r="AD9" t="n">
-        <v>136885.8497306857</v>
+        <v>162650.5133845421</v>
       </c>
       <c r="AE9" t="n">
-        <v>187293.2585789219</v>
+        <v>222545.6080468498</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.374152926285966e-06</v>
+        <v>5.972419073674961e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.265046296296297</v>
       </c>
       <c r="AH9" t="n">
-        <v>169418.2528479417</v>
+        <v>201306.167559645</v>
       </c>
     </row>
     <row r="10">
@@ -16087,28 +16087,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>133.3403862154972</v>
+        <v>159.1050498693536</v>
       </c>
       <c r="AB10" t="n">
-        <v>182.4421989826324</v>
+        <v>217.6945484505603</v>
       </c>
       <c r="AC10" t="n">
-        <v>165.0301715710156</v>
+        <v>196.9180862827189</v>
       </c>
       <c r="AD10" t="n">
-        <v>133340.3862154972</v>
+        <v>159105.0498693537</v>
       </c>
       <c r="AE10" t="n">
-        <v>182442.1989826324</v>
+        <v>217694.5484505603</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.45191396566931e-06</v>
+        <v>6.110059994210556e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>165030.1715710156</v>
+        <v>196918.0862827189</v>
       </c>
     </row>
     <row r="11">
@@ -16193,28 +16193,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>129.6799446133305</v>
+        <v>155.444608267187</v>
       </c>
       <c r="AB11" t="n">
-        <v>177.4338212952642</v>
+        <v>212.6861707631921</v>
       </c>
       <c r="AC11" t="n">
-        <v>160.499786420826</v>
+        <v>192.3877011325293</v>
       </c>
       <c r="AD11" t="n">
-        <v>129679.9446133306</v>
+        <v>155444.608267187</v>
       </c>
       <c r="AE11" t="n">
-        <v>177433.8212952642</v>
+        <v>212686.1707631921</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.535691044544588e-06</v>
+        <v>6.25834960488989e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.068287037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>160499.786420826</v>
+        <v>192387.7011325293</v>
       </c>
     </row>
     <row r="12">
@@ -16299,28 +16299,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>111.9526863966562</v>
+        <v>137.8026013965332</v>
       </c>
       <c r="AB12" t="n">
-        <v>153.1786045317858</v>
+        <v>188.547598652363</v>
       </c>
       <c r="AC12" t="n">
-        <v>138.5594535028357</v>
+        <v>170.5528804652513</v>
       </c>
       <c r="AD12" t="n">
-        <v>111952.6863966562</v>
+        <v>137802.6013965332</v>
       </c>
       <c r="AE12" t="n">
-        <v>153178.6045317858</v>
+        <v>188547.5986523629</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.643333404049025e-06</v>
+        <v>6.448881953329509e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.949652777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>138559.4535028357</v>
+        <v>170552.8804652513</v>
       </c>
     </row>
     <row r="13">
@@ -16405,28 +16405,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>127.4393766655156</v>
+        <v>153.2040403193721</v>
       </c>
       <c r="AB13" t="n">
-        <v>174.3681773821837</v>
+        <v>209.6205268501116</v>
       </c>
       <c r="AC13" t="n">
-        <v>157.7267232601507</v>
+        <v>189.614637971854</v>
       </c>
       <c r="AD13" t="n">
-        <v>127439.3766655156</v>
+        <v>153204.0403193721</v>
       </c>
       <c r="AE13" t="n">
-        <v>174368.1773821837</v>
+        <v>209620.5268501116</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.581731148425008e-06</v>
+        <v>6.339842886485774e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.016203703703704</v>
       </c>
       <c r="AH13" t="n">
-        <v>157726.7232601507</v>
+        <v>189614.637971854</v>
       </c>
     </row>
     <row r="14">
@@ -16511,28 +16511,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>109.5097485257124</v>
+        <v>135.3596635255894</v>
       </c>
       <c r="AB14" t="n">
-        <v>149.8360691619496</v>
+        <v>185.2050632825268</v>
       </c>
       <c r="AC14" t="n">
-        <v>135.5359250174178</v>
+        <v>167.5293519798333</v>
       </c>
       <c r="AD14" t="n">
-        <v>109509.7485257124</v>
+        <v>135359.6635255894</v>
       </c>
       <c r="AE14" t="n">
-        <v>149836.0691619496</v>
+        <v>185205.0632825268</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.690666210630191e-06</v>
+        <v>6.532663383220741e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.897569444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>135535.9250174178</v>
+        <v>167529.3519798333</v>
       </c>
     </row>
     <row r="15">
@@ -16617,28 +16617,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>109.3692520958902</v>
+        <v>135.2191670957672</v>
       </c>
       <c r="AB15" t="n">
-        <v>149.643835748402</v>
+        <v>185.0128298689792</v>
       </c>
       <c r="AC15" t="n">
-        <v>135.3620380910578</v>
+        <v>167.3554650534733</v>
       </c>
       <c r="AD15" t="n">
-        <v>109369.2520958902</v>
+        <v>135219.1670957672</v>
       </c>
       <c r="AE15" t="n">
-        <v>149643.835748402</v>
+        <v>185012.8298689792</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.683009433095003e-06</v>
+        <v>6.519110504855984e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.90625</v>
       </c>
       <c r="AH15" t="n">
-        <v>135362.0380910578</v>
+        <v>167355.4650534733</v>
       </c>
     </row>
     <row r="16">
@@ -16723,28 +16723,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>108.7170588321577</v>
+        <v>134.5669738320348</v>
       </c>
       <c r="AB16" t="n">
-        <v>148.7514761522276</v>
+        <v>184.1204702728048</v>
       </c>
       <c r="AC16" t="n">
-        <v>134.5548440423075</v>
+        <v>166.548271004723</v>
       </c>
       <c r="AD16" t="n">
-        <v>108717.0588321578</v>
+        <v>134566.9738320348</v>
       </c>
       <c r="AE16" t="n">
-        <v>148751.4761522276</v>
+        <v>184120.4702728048</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.707620503743822e-06</v>
+        <v>6.562673328171277e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.880208333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>134554.8440423075</v>
+        <v>166548.271004723</v>
       </c>
     </row>
   </sheetData>
@@ -17020,28 +17020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.16408038056417</v>
+        <v>109.3423978291225</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.9982284182418</v>
+        <v>149.6070925558838</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.3548887236258</v>
+        <v>135.3288016172642</v>
       </c>
       <c r="AD2" t="n">
-        <v>89164.08038056418</v>
+        <v>109342.3978291225</v>
       </c>
       <c r="AE2" t="n">
-        <v>121998.2284182418</v>
+        <v>149607.0925558838</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.005893402388828e-06</v>
+        <v>8.920342159832342e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.548611111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>110354.8887236258</v>
+        <v>135328.8016172642</v>
       </c>
     </row>
   </sheetData>
@@ -17317,28 +17317,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.7851254240008</v>
+        <v>173.3314755522042</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.5236872557585</v>
+        <v>237.1597716954322</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.5312511387789</v>
+        <v>214.5255759407188</v>
       </c>
       <c r="AD2" t="n">
-        <v>137785.1254240008</v>
+        <v>173331.4755522042</v>
       </c>
       <c r="AE2" t="n">
-        <v>188523.6872557586</v>
+        <v>237159.7716954322</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.126414689579346e-06</v>
+        <v>5.911311308105345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.982638888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>170531.2511387789</v>
+        <v>214525.5759407188</v>
       </c>
     </row>
     <row r="3">
@@ -17423,28 +17423,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.7285462573333</v>
+        <v>146.3977555664961</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.922611390542</v>
+        <v>200.3078677791403</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.8963130403405</v>
+        <v>181.1907660122141</v>
       </c>
       <c r="AD3" t="n">
-        <v>122728.5462573333</v>
+        <v>146397.7555664961</v>
       </c>
       <c r="AE3" t="n">
-        <v>167922.611390542</v>
+        <v>200307.8677791403</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.491298571151999e-06</v>
+        <v>6.601220494648991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.461805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>151896.3130403406</v>
+        <v>181190.7660122141</v>
       </c>
     </row>
     <row r="4">
@@ -17529,28 +17529,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.7190167569193</v>
+        <v>137.388226066082</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.5953756556923</v>
+        <v>187.9806320442906</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.745571382637</v>
+        <v>170.0400243545105</v>
       </c>
       <c r="AD4" t="n">
-        <v>113719.0167569193</v>
+        <v>137388.226066082</v>
       </c>
       <c r="AE4" t="n">
-        <v>155595.3756556923</v>
+        <v>187980.6320442906</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.755929569813588e-06</v>
+        <v>7.1015751725097e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.149305555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>140745.571382637</v>
+        <v>170040.0243545105</v>
       </c>
     </row>
     <row r="5">
@@ -17635,28 +17635,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.428204604378</v>
+        <v>119.1826652595613</v>
       </c>
       <c r="AB5" t="n">
-        <v>130.5690795349163</v>
+        <v>163.0709805761637</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.1077498389926</v>
+        <v>147.5077150615784</v>
       </c>
       <c r="AD5" t="n">
-        <v>95428.204604378</v>
+        <v>119182.6652595613</v>
       </c>
       <c r="AE5" t="n">
-        <v>130569.0795349163</v>
+        <v>163070.9805761637</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.950082038007624e-06</v>
+        <v>7.468671605544433e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.943865740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>118107.7498389926</v>
+        <v>147507.7150615784</v>
       </c>
     </row>
     <row r="6">
@@ -17741,28 +17741,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>92.92886993394546</v>
+        <v>116.6833305891288</v>
       </c>
       <c r="AB6" t="n">
-        <v>127.1493795759685</v>
+        <v>159.651280617216</v>
       </c>
       <c r="AC6" t="n">
-        <v>115.0144212445467</v>
+        <v>144.4143864671325</v>
       </c>
       <c r="AD6" t="n">
-        <v>92928.86993394546</v>
+        <v>116683.3305891288</v>
       </c>
       <c r="AE6" t="n">
-        <v>127149.3795759685</v>
+        <v>159651.280617216</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.031059662013124e-06</v>
+        <v>7.621781154985432e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.86574074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>115014.4212445467</v>
+        <v>144414.3864671325</v>
       </c>
     </row>
     <row r="7">
@@ -17847,28 +17847,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>93.07077622201341</v>
+        <v>116.8252368771968</v>
       </c>
       <c r="AB7" t="n">
-        <v>127.3435420197666</v>
+        <v>159.8454430610141</v>
       </c>
       <c r="AC7" t="n">
-        <v>115.1900530972174</v>
+        <v>144.5900183198032</v>
       </c>
       <c r="AD7" t="n">
-        <v>93070.7762220134</v>
+        <v>116825.2368771968</v>
       </c>
       <c r="AE7" t="n">
-        <v>127343.5420197666</v>
+        <v>159845.4430610141</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.027775330188433e-06</v>
+        <v>7.615571259695603e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.868634259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>115190.0530972174</v>
+        <v>144590.0183198032</v>
       </c>
     </row>
   </sheetData>
@@ -18144,28 +18144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.67728496956738</v>
+        <v>117.9907110693917</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.3321734610185</v>
+        <v>161.4400962678668</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.7524011167056</v>
+        <v>146.0324800627043</v>
       </c>
       <c r="AD2" t="n">
-        <v>88677.28496956738</v>
+        <v>117990.7110693917</v>
       </c>
       <c r="AE2" t="n">
-        <v>121332.1734610185</v>
+        <v>161440.0962678668</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.862437027232899e-06</v>
+        <v>8.854894695590061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.826388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>109752.4011167056</v>
+        <v>146032.4800627043</v>
       </c>
     </row>
   </sheetData>
@@ -18441,28 +18441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.191286065142</v>
+        <v>264.8415524233506</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.8531405663379</v>
+        <v>362.3678960103081</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.1857531159015</v>
+        <v>327.7840126016198</v>
       </c>
       <c r="AD2" t="n">
-        <v>227191.286065142</v>
+        <v>264841.5524233506</v>
       </c>
       <c r="AE2" t="n">
-        <v>310853.1405663379</v>
+        <v>362367.8960103081</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.31945865006971e-06</v>
+        <v>4.189350045910239e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.362847222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>281185.7531159015</v>
+        <v>327784.0126016198</v>
       </c>
     </row>
     <row r="3">
@@ -18547,28 +18547,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.4783749361376</v>
+        <v>219.0433004397714</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.3067188483588</v>
+        <v>299.7047071699553</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.6086741022123</v>
+        <v>271.1013105559417</v>
       </c>
       <c r="AD3" t="n">
-        <v>181478.3749361376</v>
+        <v>219043.3004397714</v>
       </c>
       <c r="AE3" t="n">
-        <v>248306.7188483588</v>
+        <v>299704.7071699552</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.707038303098733e-06</v>
+        <v>4.889387029609954e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>224608.6741022123</v>
+        <v>271101.3105559417</v>
       </c>
     </row>
     <row r="4">
@@ -18653,28 +18653,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.0943818265966</v>
+        <v>189.7445586762509</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.1022431456194</v>
+        <v>259.616876119865</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.2412571331934</v>
+        <v>234.839405837635</v>
       </c>
       <c r="AD4" t="n">
-        <v>152094.3818265966</v>
+        <v>189744.5586762509</v>
       </c>
       <c r="AE4" t="n">
-        <v>208102.2431456193</v>
+        <v>259616.876119865</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.982598356489464e-06</v>
+        <v>5.387096925101643e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>188241.2571331934</v>
+        <v>234839.405837635</v>
       </c>
     </row>
     <row r="5">
@@ -18759,28 +18759,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>141.4096903284523</v>
+        <v>166.6520429858413</v>
       </c>
       <c r="AB5" t="n">
-        <v>193.4829768625448</v>
+        <v>228.0206773823713</v>
       </c>
       <c r="AC5" t="n">
-        <v>175.0172331059018</v>
+        <v>206.2587039620942</v>
       </c>
       <c r="AD5" t="n">
-        <v>141409.6903284523</v>
+        <v>166652.0429858413</v>
       </c>
       <c r="AE5" t="n">
-        <v>193482.9768625448</v>
+        <v>228020.6773823713</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.19689450315634e-06</v>
+        <v>5.774153435831111e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.618055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>175017.2331059018</v>
+        <v>206258.7039620942</v>
       </c>
     </row>
     <row r="6">
@@ -18865,28 +18865,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>133.386840272703</v>
+        <v>158.4586007294998</v>
       </c>
       <c r="AB6" t="n">
-        <v>182.5057594731097</v>
+        <v>216.8100482180893</v>
       </c>
       <c r="AC6" t="n">
-        <v>165.0876659374895</v>
+        <v>196.1180015110308</v>
       </c>
       <c r="AD6" t="n">
-        <v>133386.840272703</v>
+        <v>158458.6007294997</v>
       </c>
       <c r="AE6" t="n">
-        <v>182505.7594731097</v>
+        <v>216810.0482180893</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.379053879435182e-06</v>
+        <v>6.103165290107458e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.369212962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>165087.6659374895</v>
+        <v>196118.0015110308</v>
       </c>
     </row>
     <row r="7">
@@ -18971,28 +18971,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>128.6293039517556</v>
+        <v>153.7010644085523</v>
       </c>
       <c r="AB7" t="n">
-        <v>175.9962883911033</v>
+        <v>210.3005771360829</v>
       </c>
       <c r="AC7" t="n">
-        <v>159.1994496394477</v>
+        <v>190.229785212989</v>
       </c>
       <c r="AD7" t="n">
-        <v>128629.3039517556</v>
+        <v>153701.0644085523</v>
       </c>
       <c r="AE7" t="n">
-        <v>175996.2883911033</v>
+        <v>210300.577136083</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.495001306565344e-06</v>
+        <v>6.312586725215308e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.224537037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>159199.4496394477</v>
+        <v>190229.785212989</v>
       </c>
     </row>
     <row r="8">
@@ -19077,28 +19077,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>124.0089445568857</v>
+        <v>149.0807050136824</v>
       </c>
       <c r="AB8" t="n">
-        <v>169.674508831175</v>
+        <v>203.9787975761546</v>
       </c>
       <c r="AC8" t="n">
-        <v>153.4810118480436</v>
+        <v>184.5113474215849</v>
       </c>
       <c r="AD8" t="n">
-        <v>124008.9445568857</v>
+        <v>149080.7050136824</v>
       </c>
       <c r="AE8" t="n">
-        <v>169674.508831175</v>
+        <v>203978.7975761546</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.60931638980278e-06</v>
+        <v>6.519059860312841e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.088541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>153481.0118480436</v>
+        <v>184511.3474215849</v>
       </c>
     </row>
     <row r="9">
@@ -19183,28 +19183,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>107.2643590681643</v>
+        <v>144.829195063247</v>
       </c>
       <c r="AB9" t="n">
-        <v>146.7638282465423</v>
+        <v>198.1616940985903</v>
       </c>
       <c r="AC9" t="n">
-        <v>132.7568944630588</v>
+        <v>179.2494201355615</v>
       </c>
       <c r="AD9" t="n">
-        <v>107264.3590681643</v>
+        <v>144829.195063247</v>
       </c>
       <c r="AE9" t="n">
-        <v>146763.8282465423</v>
+        <v>198161.6940985903</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.711133840111536e-06</v>
+        <v>6.702960073456383e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.978587962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>132756.8944630588</v>
+        <v>179249.4201355615</v>
       </c>
     </row>
     <row r="10">
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>102.7631461723638</v>
+        <v>127.9201579751811</v>
       </c>
       <c r="AB10" t="n">
-        <v>140.6050701830132</v>
+        <v>175.0260035806421</v>
       </c>
       <c r="AC10" t="n">
-        <v>127.1859196252397</v>
+        <v>158.3217674494933</v>
       </c>
       <c r="AD10" t="n">
-        <v>102763.1461723638</v>
+        <v>127920.1579751811</v>
       </c>
       <c r="AE10" t="n">
-        <v>140605.0701830132</v>
+        <v>175026.003580642</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.824275676176076e-06</v>
+        <v>6.907314117921501e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.859953703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>127185.9196252397</v>
+        <v>158321.7674494933</v>
       </c>
     </row>
     <row r="11">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>102.2533797298661</v>
+        <v>127.4103915326834</v>
       </c>
       <c r="AB11" t="n">
-        <v>139.90758524708</v>
+        <v>174.3285186447089</v>
       </c>
       <c r="AC11" t="n">
-        <v>126.5550016726655</v>
+        <v>157.6908494969191</v>
       </c>
       <c r="AD11" t="n">
-        <v>102253.3797298661</v>
+        <v>127410.3915326834</v>
       </c>
       <c r="AE11" t="n">
-        <v>139907.58524708</v>
+        <v>174328.5186447089</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.837946556277652e-06</v>
+        <v>6.932006130507908e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.845486111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>126555.0016726655</v>
+        <v>157690.8494969191</v>
       </c>
     </row>
     <row r="12">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>102.8958317271508</v>
+        <v>128.0528435299681</v>
       </c>
       <c r="AB12" t="n">
-        <v>140.7866164127463</v>
+        <v>175.2075498103752</v>
       </c>
       <c r="AC12" t="n">
-        <v>127.3501393376089</v>
+        <v>158.4859871618625</v>
       </c>
       <c r="AD12" t="n">
-        <v>102895.8317271508</v>
+        <v>128052.8435299681</v>
       </c>
       <c r="AE12" t="n">
-        <v>140786.6164127463</v>
+        <v>175207.5498103751</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.818001354338412e-06</v>
+        <v>6.895981589756844e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.86574074074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>127350.1393376089</v>
+        <v>158485.9871618625</v>
       </c>
     </row>
   </sheetData>
@@ -19798,28 +19798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.9132390857949</v>
+        <v>363.9407613868818</v>
       </c>
       <c r="AB2" t="n">
-        <v>426.7734543581168</v>
+        <v>497.959805662754</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.0427948544824</v>
+        <v>450.4352207012769</v>
       </c>
       <c r="AD2" t="n">
-        <v>311913.2390857949</v>
+        <v>363940.7613868818</v>
       </c>
       <c r="AE2" t="n">
-        <v>426773.4543581168</v>
+        <v>497959.805662754</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.859310763579297e-06</v>
+        <v>3.276060604280173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.690972222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>386042.7948544824</v>
+        <v>450435.2207012768</v>
       </c>
     </row>
     <row r="3">
@@ -19904,28 +19904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.3791355342902</v>
+        <v>278.3145259140878</v>
       </c>
       <c r="AB3" t="n">
-        <v>327.5290938999884</v>
+        <v>380.8022127259754</v>
       </c>
       <c r="AC3" t="n">
-        <v>296.2701768682413</v>
+        <v>344.4589840026698</v>
       </c>
       <c r="AD3" t="n">
-        <v>239379.1355342902</v>
+        <v>278314.5259140878</v>
       </c>
       <c r="AE3" t="n">
-        <v>327529.0938999884</v>
+        <v>380802.2127259754</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.261815464764566e-06</v>
+        <v>3.985264154552839e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.322337962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>296270.1768682413</v>
+        <v>344458.9840026698</v>
       </c>
     </row>
     <row r="4">
@@ -20010,28 +20010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>199.1986714290622</v>
+        <v>238.2193131548768</v>
       </c>
       <c r="AB4" t="n">
-        <v>272.5524102742731</v>
+        <v>325.9421737527236</v>
       </c>
       <c r="AC4" t="n">
-        <v>246.5403907674867</v>
+        <v>294.8347101525745</v>
       </c>
       <c r="AD4" t="n">
-        <v>199198.6714290621</v>
+        <v>238219.3131548768</v>
       </c>
       <c r="AE4" t="n">
-        <v>272552.4102742731</v>
+        <v>325942.1737527236</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.547334823648074e-06</v>
+        <v>4.488342360584911e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.613425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>246540.3907674866</v>
+        <v>294834.7101525745</v>
       </c>
     </row>
     <row r="5">
@@ -20116,28 +20116,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>183.2362020893981</v>
+        <v>209.2500527484922</v>
       </c>
       <c r="AB5" t="n">
-        <v>250.7118555093093</v>
+        <v>286.3051536311581</v>
       </c>
       <c r="AC5" t="n">
-        <v>226.784267895873</v>
+        <v>258.9805916004915</v>
       </c>
       <c r="AD5" t="n">
-        <v>183236.2020893981</v>
+        <v>209250.0527484922</v>
       </c>
       <c r="AE5" t="n">
-        <v>250711.8555093093</v>
+        <v>286305.1536311581</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.765144035107244e-06</v>
+        <v>4.872116924196361e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.170717592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>226784.267895873</v>
+        <v>258980.5916004915</v>
       </c>
     </row>
     <row r="6">
@@ -20222,28 +20222,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>159.129776431801</v>
+        <v>198.0650773030441</v>
       </c>
       <c r="AB6" t="n">
-        <v>217.7283804241598</v>
+        <v>271.0013767804127</v>
       </c>
       <c r="AC6" t="n">
-        <v>196.9486893802415</v>
+        <v>245.1373857333906</v>
       </c>
       <c r="AD6" t="n">
-        <v>159129.7764318011</v>
+        <v>198065.0773030441</v>
       </c>
       <c r="AE6" t="n">
-        <v>217728.3804241598</v>
+        <v>271001.3767804127</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.945836224146211e-06</v>
+        <v>5.190492191853148e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.855324074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>196948.6893802415</v>
+        <v>245137.3857333906</v>
       </c>
     </row>
     <row r="7">
@@ -20328,28 +20328,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>151.6022706351115</v>
+        <v>190.5375715063545</v>
       </c>
       <c r="AB7" t="n">
-        <v>207.4289149030162</v>
+        <v>260.7019112592691</v>
       </c>
       <c r="AC7" t="n">
-        <v>187.632190393042</v>
+        <v>235.8208867461911</v>
       </c>
       <c r="AD7" t="n">
-        <v>151602.2706351115</v>
+        <v>190537.5715063545</v>
       </c>
       <c r="AE7" t="n">
-        <v>207428.9149030162</v>
+        <v>260701.9112592691</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.084765585029289e-06</v>
+        <v>5.435282366192105e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>187632.190393042</v>
+        <v>235820.8867461911</v>
       </c>
     </row>
     <row r="8">
@@ -20434,28 +20434,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>145.9175253198892</v>
+        <v>171.8460351244117</v>
       </c>
       <c r="AB8" t="n">
-        <v>199.6507955694698</v>
+        <v>235.1273265691209</v>
       </c>
       <c r="AC8" t="n">
-        <v>180.5964038520277</v>
+        <v>212.6871045247074</v>
       </c>
       <c r="AD8" t="n">
-        <v>145917.5253198892</v>
+        <v>171846.0351244117</v>
       </c>
       <c r="AE8" t="n">
-        <v>199650.7955694697</v>
+        <v>235127.3265691209</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.199576294859026e-06</v>
+        <v>5.637576060603132e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.470486111111112</v>
       </c>
       <c r="AH8" t="n">
-        <v>180596.4038520277</v>
+        <v>212687.1045247074</v>
       </c>
     </row>
     <row r="9">
@@ -20540,28 +20540,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>141.3937860892401</v>
+        <v>167.3222958937626</v>
       </c>
       <c r="AB9" t="n">
-        <v>193.4612159808091</v>
+        <v>228.9377469804602</v>
       </c>
       <c r="AC9" t="n">
-        <v>174.9975490521773</v>
+        <v>207.088249724857</v>
       </c>
       <c r="AD9" t="n">
-        <v>141393.7860892401</v>
+        <v>167322.2958937626</v>
       </c>
       <c r="AE9" t="n">
-        <v>193461.2159808091</v>
+        <v>228937.7469804602</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.293332608482362e-06</v>
+        <v>5.802772418027892e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.343171296296297</v>
       </c>
       <c r="AH9" t="n">
-        <v>174997.5490521773</v>
+        <v>207088.249724857</v>
       </c>
     </row>
     <row r="10">
@@ -20646,28 +20646,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>137.3674874274525</v>
+        <v>163.295997231975</v>
       </c>
       <c r="AB10" t="n">
-        <v>187.9522565239934</v>
+        <v>223.4287875236446</v>
       </c>
       <c r="AC10" t="n">
-        <v>170.0143569540452</v>
+        <v>202.1050576267249</v>
       </c>
       <c r="AD10" t="n">
-        <v>137367.4874274525</v>
+        <v>163295.997231975</v>
       </c>
       <c r="AE10" t="n">
-        <v>187952.2565239934</v>
+        <v>223428.7875236446</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.383876396862938e-06</v>
+        <v>5.962308383658973e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.227430555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>170014.3569540452</v>
+        <v>202105.0576267249</v>
       </c>
     </row>
     <row r="11">
@@ -20752,28 +20752,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>133.5798613236885</v>
+        <v>159.508371128211</v>
       </c>
       <c r="AB11" t="n">
-        <v>182.7698593905557</v>
+        <v>218.2463903902068</v>
       </c>
       <c r="AC11" t="n">
-        <v>165.3265605294811</v>
+        <v>197.4172612021608</v>
       </c>
       <c r="AD11" t="n">
-        <v>133579.8613236885</v>
+        <v>159508.371128211</v>
       </c>
       <c r="AE11" t="n">
-        <v>182769.8593905557</v>
+        <v>218246.3903902068</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.466907818521982e-06</v>
+        <v>6.108607740787913e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.126157407407407</v>
       </c>
       <c r="AH11" t="n">
-        <v>165326.5605294811</v>
+        <v>197417.2612021608</v>
       </c>
     </row>
     <row r="12">
@@ -20858,28 +20858,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>130.0536692422158</v>
+        <v>155.9821790467383</v>
       </c>
       <c r="AB12" t="n">
-        <v>177.9451678200717</v>
+        <v>213.4216988197229</v>
       </c>
       <c r="AC12" t="n">
-        <v>160.9623307509854</v>
+        <v>193.0530314236651</v>
       </c>
       <c r="AD12" t="n">
-        <v>130053.6692422158</v>
+        <v>155982.1790467383</v>
       </c>
       <c r="AE12" t="n">
-        <v>177945.1678200717</v>
+        <v>213421.6988197229</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.543118801973318e-06</v>
+        <v>6.242889650724117e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>160962.3307509854</v>
+        <v>193053.0314236651</v>
       </c>
     </row>
     <row r="13">
@@ -20964,28 +20964,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>114.3799067933748</v>
+        <v>153.2298668100462</v>
       </c>
       <c r="AB13" t="n">
-        <v>156.499634559981</v>
+        <v>209.6558637940363</v>
       </c>
       <c r="AC13" t="n">
-        <v>141.563529086236</v>
+        <v>189.6466024074463</v>
       </c>
       <c r="AD13" t="n">
-        <v>114379.9067933748</v>
+        <v>153229.8668100462</v>
       </c>
       <c r="AE13" t="n">
-        <v>156499.634559981</v>
+        <v>209655.8637940364</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.599214435058446e-06</v>
+        <v>6.341728799736824e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.972800925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>141563.529086236</v>
+        <v>189646.6024074463</v>
       </c>
     </row>
     <row r="14">
@@ -21070,28 +21070,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>113.2355359437927</v>
+        <v>139.2492970943358</v>
       </c>
       <c r="AB14" t="n">
-        <v>154.9338558775049</v>
+        <v>190.5270315298052</v>
       </c>
       <c r="AC14" t="n">
-        <v>140.1471861236307</v>
+        <v>172.3433990470226</v>
       </c>
       <c r="AD14" t="n">
-        <v>113235.5359437927</v>
+        <v>139249.2970943358</v>
       </c>
       <c r="AE14" t="n">
-        <v>154933.8558775049</v>
+        <v>190527.0315298052</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.620565372056486e-06</v>
+        <v>6.379348634427122e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.949652777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>140147.1861236307</v>
+        <v>172343.3990470226</v>
       </c>
     </row>
     <row r="15">
@@ -21176,28 +21176,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>110.8965244911375</v>
+        <v>136.9102856416806</v>
       </c>
       <c r="AB15" t="n">
-        <v>151.7335172180811</v>
+        <v>187.3266928703815</v>
       </c>
       <c r="AC15" t="n">
-        <v>137.2522832941578</v>
+        <v>169.4484962175497</v>
       </c>
       <c r="AD15" t="n">
-        <v>110896.5244911375</v>
+        <v>136910.2856416806</v>
       </c>
       <c r="AE15" t="n">
-        <v>151733.5172180811</v>
+        <v>187326.6928703815</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.666825735552239e-06</v>
+        <v>6.460858276256102e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.900462962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>137252.2832941578</v>
+        <v>169448.4962175497</v>
       </c>
     </row>
     <row r="16">
@@ -21282,28 +21282,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>110.9446656784225</v>
+        <v>136.9584268289655</v>
       </c>
       <c r="AB16" t="n">
-        <v>151.7993861143636</v>
+        <v>187.392561766664</v>
       </c>
       <c r="AC16" t="n">
-        <v>137.3118657554267</v>
+        <v>169.5080786788186</v>
       </c>
       <c r="AD16" t="n">
-        <v>110944.6656784225</v>
+        <v>136958.4268289655</v>
       </c>
       <c r="AE16" t="n">
-        <v>151799.3861143636</v>
+        <v>187392.561766664</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.661438577837455e-06</v>
+        <v>6.451366234632855e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.90625</v>
       </c>
       <c r="AH16" t="n">
-        <v>137311.8657554267</v>
+        <v>169508.0786788186</v>
       </c>
     </row>
     <row r="17">
@@ -21388,28 +21388,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>111.0443569604705</v>
+        <v>137.0581181110136</v>
       </c>
       <c r="AB17" t="n">
-        <v>151.9357881245306</v>
+        <v>187.5289637768309</v>
       </c>
       <c r="AC17" t="n">
-        <v>137.4352497491848</v>
+        <v>169.6314626725767</v>
       </c>
       <c r="AD17" t="n">
-        <v>111044.3569604705</v>
+        <v>137058.1181110136</v>
       </c>
       <c r="AE17" t="n">
-        <v>151935.7881245306</v>
+        <v>187528.9637768309</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.660598378927811e-06</v>
+        <v>6.449885824471432e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.90625</v>
       </c>
       <c r="AH17" t="n">
-        <v>137435.2497491848</v>
+        <v>169631.4626725767</v>
       </c>
     </row>
   </sheetData>
@@ -21685,28 +21685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.9443563062454</v>
+        <v>132.6496862935386</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.4307187008167</v>
+        <v>181.497152877879</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.0738220388915</v>
+        <v>164.1753193401191</v>
       </c>
       <c r="AD2" t="n">
-        <v>109944.3563062454</v>
+        <v>132649.6862935386</v>
       </c>
       <c r="AE2" t="n">
-        <v>150430.7187008167</v>
+        <v>181497.152877879</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.747946815789921e-06</v>
+        <v>7.345923962569936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>136073.8220388915</v>
+        <v>164175.3193401191</v>
       </c>
     </row>
     <row r="3">
@@ -21791,28 +21791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.60422108445377</v>
+        <v>111.3948024177674</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.232204230055</v>
+        <v>152.4152830597665</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.6619728088375</v>
+        <v>137.8689823607773</v>
       </c>
       <c r="AD3" t="n">
-        <v>88604.22108445376</v>
+        <v>111394.8024177674</v>
       </c>
       <c r="AE3" t="n">
-        <v>121232.204230055</v>
+        <v>152415.2830597665</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.095503446700364e-06</v>
+        <v>8.027130155944642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.955439814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>109661.9728088375</v>
+        <v>137868.9823607773</v>
       </c>
     </row>
     <row r="4">
@@ -21897,28 +21897,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.69086970938038</v>
+        <v>110.4814510426941</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.9825165844614</v>
+        <v>151.1655954141729</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.5315535981914</v>
+        <v>136.7385631501311</v>
       </c>
       <c r="AD4" t="n">
-        <v>87690.86970938038</v>
+        <v>110481.4510426941</v>
       </c>
       <c r="AE4" t="n">
-        <v>119982.5165844614</v>
+        <v>151165.5954141729</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.127521870420896e-06</v>
+        <v>8.089885823944373e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.923611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>108531.5535981914</v>
+        <v>136738.5631501311</v>
       </c>
     </row>
   </sheetData>
@@ -22194,28 +22194,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.4268832820522</v>
+        <v>303.3643871621248</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.3815979944724</v>
+        <v>415.0765380074224</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.4188630281002</v>
+        <v>375.4622157835731</v>
       </c>
       <c r="AD2" t="n">
-        <v>252426.8832820521</v>
+        <v>303364.3871621249</v>
       </c>
       <c r="AE2" t="n">
-        <v>345381.5979944724</v>
+        <v>415076.5380074224</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.125587541959559e-06</v>
+        <v>3.799029320188177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.851851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>312418.8630281002</v>
+        <v>375462.2157835731</v>
       </c>
     </row>
     <row r="3">
@@ -22300,28 +22300,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.8673254046854</v>
+        <v>236.1344589556657</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.7308039088804</v>
+        <v>323.0895842600886</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.8926359569658</v>
+        <v>292.2543677974812</v>
       </c>
       <c r="AD3" t="n">
-        <v>197867.3254046854</v>
+        <v>236134.4589556657</v>
       </c>
       <c r="AE3" t="n">
-        <v>270730.8039088804</v>
+        <v>323089.5842600886</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.519714554867249e-06</v>
+        <v>4.50344635705797e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>244892.6359569659</v>
+        <v>292254.3677974812</v>
       </c>
     </row>
     <row r="4">
@@ -22406,28 +22406,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>176.7477391100697</v>
+        <v>202.259250985941</v>
       </c>
       <c r="AB4" t="n">
-        <v>241.8340542102127</v>
+        <v>276.7400302472333</v>
       </c>
       <c r="AC4" t="n">
-        <v>218.7537514926869</v>
+        <v>250.3283501675904</v>
       </c>
       <c r="AD4" t="n">
-        <v>176747.7391100698</v>
+        <v>202259.250985941</v>
       </c>
       <c r="AE4" t="n">
-        <v>241834.0542102127</v>
+        <v>276740.0302472333</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.812603935515727e-06</v>
+        <v>5.026922959498697e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.179398148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>218753.7514926869</v>
+        <v>250328.3501675904</v>
       </c>
     </row>
     <row r="5">
@@ -22512,28 +22512,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.8308869200386</v>
+        <v>190.0126796164473</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.741717789892</v>
+        <v>259.9837310189027</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.9151398114161</v>
+        <v>235.1712486199927</v>
       </c>
       <c r="AD5" t="n">
-        <v>151830.8869200386</v>
+        <v>190012.6796164473</v>
       </c>
       <c r="AE5" t="n">
-        <v>207741.717789892</v>
+        <v>259983.7310189027</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.024644167776194e-06</v>
+        <v>5.40589914538394e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.814814814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>187915.1398114161</v>
+        <v>235171.2486199927</v>
       </c>
     </row>
     <row r="6">
@@ -22618,28 +22618,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>143.5590651316214</v>
+        <v>169.1558283535132</v>
       </c>
       <c r="AB6" t="n">
-        <v>196.4238462919632</v>
+        <v>231.446466981633</v>
       </c>
       <c r="AC6" t="n">
-        <v>177.6774300845136</v>
+        <v>209.3575410101293</v>
       </c>
       <c r="AD6" t="n">
-        <v>143559.0651316214</v>
+        <v>169155.8283535132</v>
       </c>
       <c r="AE6" t="n">
-        <v>196423.8462919632</v>
+        <v>231446.466981633</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.191074606487756e-06</v>
+        <v>5.70335766165569e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.565972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>177677.4300845136</v>
+        <v>209357.5410101293</v>
       </c>
     </row>
     <row r="7">
@@ -22724,28 +22724,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>137.4951940033447</v>
+        <v>162.9213650246444</v>
       </c>
       <c r="AB7" t="n">
-        <v>188.1269902951456</v>
+        <v>222.9161992099686</v>
       </c>
       <c r="AC7" t="n">
-        <v>170.1724143793191</v>
+        <v>201.6413900222838</v>
       </c>
       <c r="AD7" t="n">
-        <v>137495.1940033447</v>
+        <v>162921.3650246444</v>
       </c>
       <c r="AE7" t="n">
-        <v>188126.9902951456</v>
+        <v>222916.1992099686</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.323272529069898e-06</v>
+        <v>5.939632938040933e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.383680555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>170172.4143793191</v>
+        <v>201641.3900222838</v>
       </c>
     </row>
     <row r="8">
@@ -22830,28 +22830,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>132.6988784441453</v>
+        <v>158.1250494654449</v>
       </c>
       <c r="AB8" t="n">
-        <v>181.5644597485436</v>
+        <v>216.3536686633665</v>
       </c>
       <c r="AC8" t="n">
-        <v>164.2362025375132</v>
+        <v>195.7051781804779</v>
       </c>
       <c r="AD8" t="n">
-        <v>132698.8784441453</v>
+        <v>158125.0494654449</v>
       </c>
       <c r="AE8" t="n">
-        <v>181564.4597485436</v>
+        <v>216353.6686633665</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.433269658103402e-06</v>
+        <v>6.136229083852722e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.241898148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>164236.2025375132</v>
+        <v>195705.1781804779</v>
       </c>
     </row>
     <row r="9">
@@ -22936,28 +22936,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>127.908727938377</v>
+        <v>153.3348989596767</v>
       </c>
       <c r="AB9" t="n">
-        <v>175.0103645000291</v>
+        <v>209.799573414852</v>
       </c>
       <c r="AC9" t="n">
-        <v>158.3076209407844</v>
+        <v>189.7765965837491</v>
       </c>
       <c r="AD9" t="n">
-        <v>127908.727938377</v>
+        <v>153334.8989596766</v>
       </c>
       <c r="AE9" t="n">
-        <v>175010.3645000291</v>
+        <v>209799.573414852</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.547847903265991e-06</v>
+        <v>6.341012986766971e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.105902777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>158307.6209407844</v>
+        <v>189776.5965837491</v>
       </c>
     </row>
     <row r="10">
@@ -23042,28 +23042,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>124.5957511563573</v>
+        <v>150.021922177657</v>
       </c>
       <c r="AB10" t="n">
-        <v>170.4774035086517</v>
+        <v>205.2666124234747</v>
       </c>
       <c r="AC10" t="n">
-        <v>154.207279384372</v>
+        <v>185.6762550273367</v>
       </c>
       <c r="AD10" t="n">
-        <v>124595.7511563573</v>
+        <v>150021.922177657</v>
       </c>
       <c r="AE10" t="n">
-        <v>170477.4035086517</v>
+        <v>205266.6124234747</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.628848077460456e-06</v>
+        <v>6.485783329380778e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.013310185185185</v>
       </c>
       <c r="AH10" t="n">
-        <v>154207.279384372</v>
+        <v>185676.2550273367</v>
       </c>
     </row>
     <row r="11">
@@ -23148,28 +23148,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>107.0699931108881</v>
+        <v>132.5814154782083</v>
       </c>
       <c r="AB11" t="n">
-        <v>146.4978881689763</v>
+        <v>181.4037417364485</v>
       </c>
       <c r="AC11" t="n">
-        <v>132.5163353332464</v>
+        <v>164.0908232269232</v>
       </c>
       <c r="AD11" t="n">
-        <v>107069.9931108881</v>
+        <v>132581.4154782083</v>
       </c>
       <c r="AE11" t="n">
-        <v>146497.8881689763</v>
+        <v>181403.7417364485</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.738039735526209e-06</v>
+        <v>6.680939869548178e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.897569444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>132516.3353332464</v>
+        <v>164090.8232269232</v>
       </c>
     </row>
     <row r="12">
@@ -23254,28 +23254,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>109.5867185536817</v>
+        <v>147.6831703955188</v>
       </c>
       <c r="AB12" t="n">
-        <v>149.9413829498952</v>
+        <v>202.0666290567082</v>
       </c>
       <c r="AC12" t="n">
-        <v>135.6311878052507</v>
+        <v>182.7816735818885</v>
       </c>
       <c r="AD12" t="n">
-        <v>109586.7185536817</v>
+        <v>147683.1703955188</v>
       </c>
       <c r="AE12" t="n">
-        <v>149941.3829498952</v>
+        <v>202066.6290567082</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.666805896815724e-06</v>
+        <v>6.55362474537258e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.972800925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>135631.1878052507</v>
+        <v>182781.6735818885</v>
       </c>
     </row>
     <row r="13">
@@ -23360,28 +23360,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>105.7814130423257</v>
+        <v>131.292835409646</v>
       </c>
       <c r="AB13" t="n">
-        <v>144.7347960710296</v>
+        <v>179.6406496385018</v>
       </c>
       <c r="AC13" t="n">
-        <v>130.9215102706119</v>
+        <v>162.4959981642887</v>
       </c>
       <c r="AD13" t="n">
-        <v>105781.4130423257</v>
+        <v>131292.835409646</v>
       </c>
       <c r="AE13" t="n">
-        <v>144734.7960710296</v>
+        <v>179640.6496385018</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.763160361332945e-06</v>
+        <v>6.725837570582542e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.871527777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>130921.5102706118</v>
+        <v>162495.9981642888</v>
       </c>
     </row>
     <row r="14">
@@ -23466,28 +23466,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>105.9392876915243</v>
+        <v>131.4507100588444</v>
       </c>
       <c r="AB14" t="n">
-        <v>144.9508071310009</v>
+        <v>179.8566606984731</v>
       </c>
       <c r="AC14" t="n">
-        <v>131.116905538193</v>
+        <v>162.6913934318699</v>
       </c>
       <c r="AD14" t="n">
-        <v>105939.2876915243</v>
+        <v>131450.7100588444</v>
       </c>
       <c r="AE14" t="n">
-        <v>144950.8071310009</v>
+        <v>179856.6606984731</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.760290871010332e-06</v>
+        <v>6.720708975474407e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.874421296296296</v>
       </c>
       <c r="AH14" t="n">
-        <v>131116.905538193</v>
+        <v>162691.3934318699</v>
       </c>
     </row>
   </sheetData>
@@ -23763,28 +23763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.8755488800709</v>
+        <v>157.7278398235126</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.1237468642695</v>
+        <v>215.8101889076223</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.078252426751</v>
+        <v>195.2135673698431</v>
       </c>
       <c r="AD2" t="n">
-        <v>122875.5488800709</v>
+        <v>157727.8398235126</v>
       </c>
       <c r="AE2" t="n">
-        <v>168123.7468642695</v>
+        <v>215810.1889076224</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.430810901113111e-06</v>
+        <v>6.596430690714596e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.626736111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>152078.252426751</v>
+        <v>195213.5673698431</v>
       </c>
     </row>
     <row r="3">
@@ -23869,28 +23869,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.8200811987199</v>
+        <v>134.0265843847082</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.6289241329553</v>
+        <v>183.3810855906731</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.1576724262791</v>
+        <v>165.8794521589208</v>
       </c>
       <c r="AD3" t="n">
-        <v>110820.0811987199</v>
+        <v>134026.5843847082</v>
       </c>
       <c r="AE3" t="n">
-        <v>151628.9241329553</v>
+        <v>183381.0855906731</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.789226817581668e-06</v>
+        <v>7.285558077673381e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.186921296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>137157.6724262791</v>
+        <v>165879.4521589208</v>
       </c>
     </row>
     <row r="4">
@@ -23975,28 +23975,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.04510673895626</v>
+        <v>115.3368612709651</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.9401757837044</v>
+        <v>157.8089818940714</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.9206221650877</v>
+        <v>142.7479141484417</v>
       </c>
       <c r="AD4" t="n">
-        <v>92045.10673895627</v>
+        <v>115336.8612709651</v>
       </c>
       <c r="AE4" t="n">
-        <v>125940.1757837044</v>
+        <v>157808.9818940714</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.017494154129815e-06</v>
+        <v>7.724448389000462e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.949652777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>113920.6221650877</v>
+        <v>142747.9141484417</v>
       </c>
     </row>
     <row r="5">
@@ -24081,28 +24081,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.33792642127609</v>
+        <v>113.6296809532849</v>
       </c>
       <c r="AB5" t="n">
-        <v>123.6043363575755</v>
+        <v>155.4731424679424</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.8077119754166</v>
+        <v>140.6350039587705</v>
       </c>
       <c r="AD5" t="n">
-        <v>90337.92642127609</v>
+        <v>113629.6809532849</v>
       </c>
       <c r="AE5" t="n">
-        <v>123604.3363575755</v>
+        <v>155473.1424679424</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.078592138972351e-06</v>
+        <v>7.841921672714628e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.891782407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>111807.7119754165</v>
+        <v>140635.0039587705</v>
       </c>
     </row>
     <row r="6">
@@ -24187,28 +24187,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>90.41400047702768</v>
+        <v>113.7057550090365</v>
       </c>
       <c r="AB6" t="n">
-        <v>123.7084242368052</v>
+        <v>155.5772303471722</v>
       </c>
       <c r="AC6" t="n">
-        <v>111.9018658535409</v>
+        <v>140.7291578368948</v>
       </c>
       <c r="AD6" t="n">
-        <v>90414.00047702769</v>
+        <v>113705.7550090365</v>
       </c>
       <c r="AE6" t="n">
-        <v>123708.4242368052</v>
+        <v>155577.2303471722</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.078153374269712e-06</v>
+        <v>7.841078058468926e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.891782407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>111901.8658535409</v>
+        <v>140729.1578368949</v>
       </c>
     </row>
   </sheetData>
@@ -24484,28 +24484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.713890382865</v>
+        <v>201.821864500381</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.7370556026081</v>
+        <v>276.1415787615604</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.0975892434167</v>
+        <v>249.787014051778</v>
       </c>
       <c r="AD2" t="n">
-        <v>165713.890382865</v>
+        <v>201821.864500381</v>
       </c>
       <c r="AE2" t="n">
-        <v>226737.0556026081</v>
+        <v>276141.5787615604</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.868140245421196e-06</v>
+        <v>5.343127739037865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.341435185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>205097.5892434167</v>
+        <v>249787.014051778</v>
       </c>
     </row>
     <row r="3">
@@ -24590,28 +24590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.2066557385728</v>
+        <v>170.3998812021093</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.6274671612179</v>
+        <v>233.1486349728194</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.1023194181716</v>
+        <v>210.8972564772452</v>
       </c>
       <c r="AD3" t="n">
-        <v>134206.6557385728</v>
+        <v>170399.8812021093</v>
       </c>
       <c r="AE3" t="n">
-        <v>183627.4671612179</v>
+        <v>233148.6349728194</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.251889458936732e-06</v>
+        <v>6.058023417811662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.710648148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>166102.3194181717</v>
+        <v>210897.2564772452</v>
       </c>
     </row>
     <row r="4">
@@ -24696,28 +24696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.8197899069315</v>
+        <v>147.9202494396497</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.4156990941936</v>
+        <v>202.3910110640772</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.2469025491179</v>
+        <v>183.0750970257473</v>
       </c>
       <c r="AD4" t="n">
-        <v>123819.7899069315</v>
+        <v>147920.2494396497</v>
       </c>
       <c r="AE4" t="n">
-        <v>169415.6990941936</v>
+        <v>202391.0110640772</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.513510180856139e-06</v>
+        <v>6.545402979751252e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.360532407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>153246.9025491179</v>
+        <v>183075.0970257473</v>
       </c>
     </row>
     <row r="5">
@@ -24802,28 +24802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.5892067870543</v>
+        <v>140.6896663197724</v>
       </c>
       <c r="AB5" t="n">
-        <v>159.5224962787685</v>
+        <v>192.4978082486521</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.2978931251965</v>
+        <v>174.1260876018258</v>
       </c>
       <c r="AD5" t="n">
-        <v>116589.2067870543</v>
+        <v>140689.6663197725</v>
       </c>
       <c r="AE5" t="n">
-        <v>159522.4962787685</v>
+        <v>192497.8082486521</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.713881373180088e-06</v>
+        <v>6.918679313612313e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.123263888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>144297.8931251965</v>
+        <v>174126.0876018258</v>
       </c>
     </row>
     <row r="6">
@@ -24908,28 +24908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>98.98993474776258</v>
+        <v>123.1756456265013</v>
       </c>
       <c r="AB6" t="n">
-        <v>135.4423958495367</v>
+        <v>168.5343524720695</v>
       </c>
       <c r="AC6" t="n">
-        <v>122.5159636842896</v>
+        <v>152.4496704116312</v>
       </c>
       <c r="AD6" t="n">
-        <v>98989.93474776257</v>
+        <v>123175.6456265013</v>
       </c>
       <c r="AE6" t="n">
-        <v>135442.3958495367</v>
+        <v>168534.3524720695</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.875872350329701e-06</v>
+        <v>7.220456217605665e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.952546296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>122515.9636842896</v>
+        <v>152449.6704116312</v>
       </c>
     </row>
     <row r="7">
@@ -25014,28 +25014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>95.9406083437017</v>
+        <v>120.1263192224404</v>
       </c>
       <c r="AB7" t="n">
-        <v>131.2701729367162</v>
+        <v>164.362129559249</v>
       </c>
       <c r="AC7" t="n">
-        <v>118.7419318705157</v>
+        <v>148.6756385978573</v>
       </c>
       <c r="AD7" t="n">
-        <v>95940.60834370169</v>
+        <v>120126.3192224404</v>
       </c>
       <c r="AE7" t="n">
-        <v>131270.1729367162</v>
+        <v>164362.129559249</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.962955735104574e-06</v>
+        <v>7.382685958477908e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.86574074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>118741.9318705157</v>
+        <v>148675.6385978573</v>
       </c>
     </row>
     <row r="8">
@@ -25120,28 +25120,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>95.61793917411845</v>
+        <v>119.8036500528572</v>
       </c>
       <c r="AB8" t="n">
-        <v>130.8286827437335</v>
+        <v>163.9206393662663</v>
       </c>
       <c r="AC8" t="n">
-        <v>118.3425768819158</v>
+        <v>148.2762836092574</v>
       </c>
       <c r="AD8" t="n">
-        <v>95617.93917411845</v>
+        <v>119803.6500528572</v>
       </c>
       <c r="AE8" t="n">
-        <v>130828.6827437335</v>
+        <v>163920.6393662663</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.975978539149935e-06</v>
+        <v>7.406946454681295e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.851273148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>118342.5768819158</v>
+        <v>148276.2836092574</v>
       </c>
     </row>
   </sheetData>
@@ -25417,28 +25417,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.4637941624879</v>
+        <v>119.6195097946851</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.3542629721941</v>
+        <v>163.6686905413405</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.627119278047</v>
+        <v>148.0483804265701</v>
       </c>
       <c r="AD2" t="n">
-        <v>97463.7941624879</v>
+        <v>119619.5097946851</v>
       </c>
       <c r="AE2" t="n">
-        <v>133354.2629721941</v>
+        <v>163668.6905413405</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.118247720557725e-06</v>
+        <v>8.255016662945962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.02488425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>120627.119278047</v>
+        <v>148048.3804265701</v>
       </c>
     </row>
     <row r="3">
@@ -25523,28 +25523,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.07991845140889</v>
+        <v>118.2706872095923</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.4100978862665</v>
+        <v>161.8231719745647</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.30008152663</v>
+        <v>146.3789955616052</v>
       </c>
       <c r="AD3" t="n">
-        <v>85079.91845140888</v>
+        <v>118270.6872095923</v>
       </c>
       <c r="AE3" t="n">
-        <v>116410.0978862665</v>
+        <v>161823.1719745647</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.168302631106864e-06</v>
+        <v>8.355351598744689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.975694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>105300.0815266299</v>
+        <v>146378.9955616052</v>
       </c>
     </row>
   </sheetData>
@@ -25820,28 +25820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.1660416702877</v>
+        <v>113.3712883380109</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.1056442920246</v>
+        <v>155.119598292247</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.0702985912104</v>
+        <v>140.3152015430011</v>
       </c>
       <c r="AD2" t="n">
-        <v>92166.0416702877</v>
+        <v>113371.2883380109</v>
       </c>
       <c r="AE2" t="n">
-        <v>126105.6442920246</v>
+        <v>155119.598292247</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.17280103207594e-06</v>
+        <v>8.729760717387204e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.137731481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>114070.2985912104</v>
+        <v>140315.2015430011</v>
       </c>
     </row>
   </sheetData>
@@ -44490,28 +44490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.2565376743477</v>
+        <v>289.8438613079106</v>
       </c>
       <c r="AB2" t="n">
-        <v>327.3613500993793</v>
+        <v>396.5771580501834</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.1184423005324</v>
+        <v>358.7283906854103</v>
       </c>
       <c r="AD2" t="n">
-        <v>239256.5376743477</v>
+        <v>289843.8613079106</v>
       </c>
       <c r="AE2" t="n">
-        <v>327361.3500993793</v>
+        <v>396577.1580501834</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.220821711902185e-06</v>
+        <v>3.989718111824938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.60300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>296118.4423005324</v>
+        <v>358728.3906854102</v>
       </c>
     </row>
     <row r="3">
@@ -44596,28 +44596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.247389706782</v>
+        <v>227.2518880728801</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.9366276022911</v>
+        <v>310.9360589068971</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.2240792838433</v>
+        <v>281.2607578464144</v>
       </c>
       <c r="AD3" t="n">
-        <v>189247.389706782</v>
+        <v>227251.8880728802</v>
       </c>
       <c r="AE3" t="n">
-        <v>258936.6276022911</v>
+        <v>310936.0589068971</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.615440788136965e-06</v>
+        <v>4.698653397934422e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.60474537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>234224.0792838433</v>
+        <v>281260.7578464145</v>
       </c>
     </row>
     <row r="4">
@@ -44702,28 +44702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.5234757689123</v>
+        <v>195.8598975215288</v>
       </c>
       <c r="AB4" t="n">
-        <v>233.3177425117267</v>
+        <v>267.9841525176791</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.0502246299832</v>
+        <v>242.4081211195905</v>
       </c>
       <c r="AD4" t="n">
-        <v>170523.4757689123</v>
+        <v>195859.8975215288</v>
       </c>
       <c r="AE4" t="n">
-        <v>233317.7425117267</v>
+        <v>267984.1525176791</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.897572146184636e-06</v>
+        <v>5.205503895245363e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.060763888888888</v>
       </c>
       <c r="AH4" t="n">
-        <v>211050.2246299832</v>
+        <v>242408.1211195905</v>
       </c>
     </row>
     <row r="5">
@@ -44808,28 +44808,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.9427294538739</v>
+        <v>184.8618869654004</v>
       </c>
       <c r="AB5" t="n">
-        <v>201.0535250944012</v>
+        <v>252.9361892768096</v>
       </c>
       <c r="AC5" t="n">
-        <v>181.8652588398434</v>
+        <v>228.7963143704757</v>
       </c>
       <c r="AD5" t="n">
-        <v>146942.7294538738</v>
+        <v>184861.8869654004</v>
       </c>
       <c r="AE5" t="n">
-        <v>201053.5250944012</v>
+        <v>252936.1892768096</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.100860761214675e-06</v>
+        <v>5.570712982029038e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.72800925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>181865.2588398434</v>
+        <v>228796.3143704757</v>
       </c>
     </row>
     <row r="6">
@@ -44914,28 +44914,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>138.6171865349941</v>
+        <v>163.868267433039</v>
       </c>
       <c r="AB6" t="n">
-        <v>189.6621499757645</v>
+        <v>224.2117928595193</v>
       </c>
       <c r="AC6" t="n">
-        <v>171.5610605746304</v>
+        <v>202.8133340322989</v>
       </c>
       <c r="AD6" t="n">
-        <v>138617.186534994</v>
+        <v>163868.267433039</v>
       </c>
       <c r="AE6" t="n">
-        <v>189662.1499757645</v>
+        <v>224211.7928595193</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.276331467557901e-06</v>
+        <v>5.885947046717937e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.476273148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>171561.0605746304</v>
+        <v>202813.3340322989</v>
       </c>
     </row>
     <row r="7">
@@ -45020,28 +45020,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>132.9775496048179</v>
+        <v>158.2286305028628</v>
       </c>
       <c r="AB7" t="n">
-        <v>181.9457499246797</v>
+        <v>216.4953928084345</v>
       </c>
       <c r="AC7" t="n">
-        <v>164.5811029143832</v>
+        <v>195.8333763720517</v>
       </c>
       <c r="AD7" t="n">
-        <v>132977.5496048179</v>
+        <v>158228.6305028629</v>
       </c>
       <c r="AE7" t="n">
-        <v>181945.7499246798</v>
+        <v>216495.3928084345</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.408428531212765e-06</v>
+        <v>6.123260129780011e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.302662037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>164581.1029143832</v>
+        <v>195833.3763720517</v>
       </c>
     </row>
     <row r="8">
@@ -45126,28 +45126,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>128.4006362401064</v>
+        <v>153.6517171381512</v>
       </c>
       <c r="AB8" t="n">
-        <v>175.6834151399176</v>
+        <v>210.2330580236723</v>
       </c>
       <c r="AC8" t="n">
-        <v>158.9164365722347</v>
+        <v>190.1687100299032</v>
       </c>
       <c r="AD8" t="n">
-        <v>128400.6362401064</v>
+        <v>153651.7171381512</v>
       </c>
       <c r="AE8" t="n">
-        <v>175683.4151399176</v>
+        <v>210233.0580236723</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.516609287217035e-06</v>
+        <v>6.317607437926358e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.169560185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>158916.4365722347</v>
+        <v>190168.7100299032</v>
       </c>
     </row>
     <row r="9">
@@ -45232,28 +45232,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>124.2444900749568</v>
+        <v>149.4955709730017</v>
       </c>
       <c r="AB9" t="n">
-        <v>169.9967926005346</v>
+        <v>204.5464354842893</v>
       </c>
       <c r="AC9" t="n">
-        <v>153.7725373067837</v>
+        <v>185.0248107644522</v>
       </c>
       <c r="AD9" t="n">
-        <v>124244.4900749568</v>
+        <v>149495.5709730017</v>
       </c>
       <c r="AE9" t="n">
-        <v>169996.7926005346</v>
+        <v>204546.4354842893</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.617594882868796e-06</v>
+        <v>6.49902860192433e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.053819444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>153772.5373067837</v>
+        <v>185024.8107644522</v>
       </c>
     </row>
     <row r="10">
@@ -45338,28 +45338,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>107.0492221291248</v>
+        <v>132.3855543731902</v>
       </c>
       <c r="AB10" t="n">
-        <v>146.4694683953768</v>
+        <v>181.1357559317807</v>
       </c>
       <c r="AC10" t="n">
-        <v>132.4906279029517</v>
+        <v>163.8484136113325</v>
       </c>
       <c r="AD10" t="n">
-        <v>107049.2221291248</v>
+        <v>132385.5543731902</v>
       </c>
       <c r="AE10" t="n">
-        <v>146469.4683953768</v>
+        <v>181135.7559317807</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.7324640977923e-06</v>
+        <v>6.705391762377616e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.929398148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>132490.6279029517</v>
+        <v>163848.4136113325</v>
       </c>
     </row>
     <row r="11">
@@ -45444,28 +45444,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>104.6975482788752</v>
+        <v>130.0338805229406</v>
       </c>
       <c r="AB11" t="n">
-        <v>143.2518044849387</v>
+        <v>177.9180920213427</v>
       </c>
       <c r="AC11" t="n">
-        <v>129.5800533201052</v>
+        <v>160.937839028486</v>
       </c>
       <c r="AD11" t="n">
-        <v>104697.5482788752</v>
+        <v>130033.8805229406</v>
       </c>
       <c r="AE11" t="n">
-        <v>143251.8044849387</v>
+        <v>177918.0920213427</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.784198314129705e-06</v>
+        <v>6.798332559388117e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.874421296296296</v>
       </c>
       <c r="AH11" t="n">
-        <v>129580.0533201052</v>
+        <v>160937.839028486</v>
       </c>
     </row>
     <row r="12">
@@ -45550,28 +45550,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>104.2908425552974</v>
+        <v>129.6271747993629</v>
       </c>
       <c r="AB12" t="n">
-        <v>142.6953317713498</v>
+        <v>177.3616193077538</v>
       </c>
       <c r="AC12" t="n">
-        <v>129.0766895812866</v>
+        <v>160.4344752896674</v>
       </c>
       <c r="AD12" t="n">
-        <v>104290.8425552975</v>
+        <v>129627.1747993629</v>
       </c>
       <c r="AE12" t="n">
-        <v>142695.3317713498</v>
+        <v>177361.6193077538</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.793369610071988e-06</v>
+        <v>6.814808841718089e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.86574074074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>129076.6895812867</v>
+        <v>160434.4752896674</v>
       </c>
     </row>
     <row r="13">
@@ -45656,28 +45656,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>104.3182514014152</v>
+        <v>129.6545836454806</v>
       </c>
       <c r="AB13" t="n">
-        <v>142.7328337638009</v>
+        <v>177.3991213002049</v>
       </c>
       <c r="AC13" t="n">
-        <v>129.1106124362127</v>
+        <v>160.4683981445934</v>
       </c>
       <c r="AD13" t="n">
-        <v>104318.2514014152</v>
+        <v>129654.5836454806</v>
       </c>
       <c r="AE13" t="n">
-        <v>142732.8337638009</v>
+        <v>177399.1213002049</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.789518679179095e-06</v>
+        <v>6.807890623723183e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.868634259259259</v>
       </c>
       <c r="AH13" t="n">
-        <v>129110.6124362127</v>
+        <v>160468.3981445934</v>
       </c>
     </row>
   </sheetData>
@@ -45953,28 +45953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.82273040277319</v>
+        <v>110.2682494625403</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.8994224362159</v>
+        <v>150.8738836064168</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.1700740493585</v>
+        <v>136.4746919078871</v>
       </c>
       <c r="AD2" t="n">
-        <v>89822.73040277319</v>
+        <v>110268.2494625403</v>
       </c>
       <c r="AE2" t="n">
-        <v>122899.4224362159</v>
+        <v>150873.8836064168</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.102735347314174e-06</v>
+        <v>8.918754906954456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.351851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>111170.0740493585</v>
+        <v>136474.6919078871</v>
       </c>
     </row>
   </sheetData>
@@ -46250,28 +46250,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.14707275141581</v>
+        <v>127.5136125739449</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.6573989985744</v>
+        <v>174.4697502271538</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.710447234542</v>
+        <v>157.8186021353553</v>
       </c>
       <c r="AD2" t="n">
-        <v>99147.07275141581</v>
+        <v>127513.6125739449</v>
       </c>
       <c r="AE2" t="n">
-        <v>135657.3989985744</v>
+        <v>174469.7502271538</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.582813018427622e-06</v>
+        <v>8.521817369591565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.35011574074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>122710.447234542</v>
+        <v>157818.6021353553</v>
       </c>
     </row>
   </sheetData>
@@ -46547,28 +46547,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.0107241603011</v>
+        <v>139.9719854165873</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.0992349448786</v>
+        <v>191.5158455750679</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.8195886624709</v>
+        <v>173.2378420676149</v>
       </c>
       <c r="AD2" t="n">
-        <v>117010.7241603011</v>
+        <v>139971.9854165873</v>
       </c>
       <c r="AE2" t="n">
-        <v>160099.2349448786</v>
+        <v>191515.8455750679</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.565432567908849e-06</v>
+        <v>6.919000696985302e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.496527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>144819.588662471</v>
+        <v>173237.8420676149</v>
       </c>
     </row>
     <row r="3">
@@ -46653,28 +46653,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.6054485821033</v>
+        <v>128.5667098383895</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.4940337335493</v>
+        <v>175.9106443637385</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.7037259527085</v>
+        <v>159.1219793578524</v>
       </c>
       <c r="AD3" t="n">
-        <v>105605.4485821032</v>
+        <v>128566.7098383895</v>
       </c>
       <c r="AE3" t="n">
-        <v>144494.0337335493</v>
+        <v>175910.6443637385</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.926097071678766e-06</v>
+        <v>7.618898368707504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.08275462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>130703.7259527085</v>
+        <v>159121.9793578524</v>
       </c>
     </row>
     <row r="4">
@@ -46759,28 +46759,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.06202795918288</v>
+        <v>112.1085405614897</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.858595793073</v>
+        <v>153.3918510759114</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.2285824402273</v>
+        <v>138.7523480960835</v>
       </c>
       <c r="AD4" t="n">
-        <v>89062.02795918289</v>
+        <v>112108.5405614897</v>
       </c>
       <c r="AE4" t="n">
-        <v>121858.5957930729</v>
+        <v>153391.8510759114</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.10313343384259e-06</v>
+        <v>7.962451272842685e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.90625</v>
       </c>
       <c r="AH4" t="n">
-        <v>110228.5824402273</v>
+        <v>138752.3480960835</v>
       </c>
     </row>
     <row r="5">
@@ -46865,28 +46865,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.76434567528572</v>
+        <v>111.8108582775926</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.4512937594296</v>
+        <v>152.984549042268</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.8601527410227</v>
+        <v>138.3839183968789</v>
       </c>
       <c r="AD5" t="n">
-        <v>88764.34567528573</v>
+        <v>111810.8582775926</v>
       </c>
       <c r="AE5" t="n">
-        <v>121451.2937594296</v>
+        <v>152984.549042268</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.117867999654724e-06</v>
+        <v>7.991044849970333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.891782407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>109860.1527410227</v>
+        <v>138383.9183968789</v>
       </c>
     </row>
   </sheetData>
@@ -47162,28 +47162,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.886900129536</v>
+        <v>180.8606510463357</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.6595781186832</v>
+        <v>247.4615217702775</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.1727692597076</v>
+        <v>223.8441414470213</v>
       </c>
       <c r="AD2" t="n">
-        <v>156886.900129536</v>
+        <v>180860.6510463357</v>
       </c>
       <c r="AE2" t="n">
-        <v>214659.5781186832</v>
+        <v>247461.5217702775</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.006654050699925e-06</v>
+        <v>5.6416622967592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.13599537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>194172.7692597076</v>
+        <v>223844.1414470213</v>
       </c>
     </row>
     <row r="3">
@@ -47268,28 +47268,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.4257726907337</v>
+        <v>152.4847749535539</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.7178079406078</v>
+        <v>208.6363962448513</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.9475469722976</v>
+        <v>188.7244314103235</v>
       </c>
       <c r="AD3" t="n">
-        <v>128425.7726907337</v>
+        <v>152484.7749535539</v>
       </c>
       <c r="AE3" t="n">
-        <v>175717.8079406078</v>
+        <v>208636.3962448513</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.368453918536737e-06</v>
+        <v>6.320540757309805e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.586226851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>158947.5469722976</v>
+        <v>188724.4314103235</v>
       </c>
     </row>
     <row r="4">
@@ -47374,28 +47374,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.9563861298095</v>
+        <v>142.8447961920375</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.7613754881067</v>
+        <v>195.4465520175034</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.2276582485919</v>
+        <v>176.7934074039668</v>
       </c>
       <c r="AD4" t="n">
-        <v>118956.3861298095</v>
+        <v>142844.7961920375</v>
       </c>
       <c r="AE4" t="n">
-        <v>162761.3754881067</v>
+        <v>195446.5520175034</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.622589234377849e-06</v>
+        <v>6.79739828913061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.265046296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>147227.6582485919</v>
+        <v>176793.4074039668</v>
       </c>
     </row>
     <row r="5">
@@ -47480,28 +47480,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.9371084738622</v>
+        <v>135.8255185360902</v>
       </c>
       <c r="AB5" t="n">
-        <v>153.1572901305695</v>
+        <v>185.8424666599663</v>
       </c>
       <c r="AC5" t="n">
-        <v>138.5401733181566</v>
+        <v>168.1059224735315</v>
       </c>
       <c r="AD5" t="n">
-        <v>111937.1084738622</v>
+        <v>135825.5185360902</v>
       </c>
       <c r="AE5" t="n">
-        <v>153157.2901305695</v>
+        <v>185842.4666599663</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.830552097330375e-06</v>
+        <v>7.187618189146124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.033564814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>138540.1733181566</v>
+        <v>168105.9224735315</v>
       </c>
     </row>
     <row r="6">
@@ -47586,28 +47586,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>95.11561132797283</v>
+        <v>119.0892727362214</v>
       </c>
       <c r="AB6" t="n">
-        <v>130.1413756234969</v>
+        <v>162.9431968055428</v>
       </c>
       <c r="AC6" t="n">
-        <v>117.7208653885928</v>
+        <v>147.3921267946799</v>
       </c>
       <c r="AD6" t="n">
-        <v>95115.61132797283</v>
+        <v>119089.2727362214</v>
       </c>
       <c r="AE6" t="n">
-        <v>130141.3756234969</v>
+        <v>162943.1968055428</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.975154611636943e-06</v>
+        <v>7.458949223320156e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.88599537037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>117720.8653885928</v>
+        <v>147392.1267946798</v>
       </c>
     </row>
     <row r="7">
@@ -47692,28 +47692,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>94.28390551152995</v>
+        <v>118.2575669197786</v>
       </c>
       <c r="AB7" t="n">
-        <v>129.0033990331693</v>
+        <v>161.8052202152152</v>
       </c>
       <c r="AC7" t="n">
-        <v>116.6914956868855</v>
+        <v>146.3627570929726</v>
       </c>
       <c r="AD7" t="n">
-        <v>94283.90551152996</v>
+        <v>118257.5669197786</v>
       </c>
       <c r="AE7" t="n">
-        <v>129003.3990331693</v>
+        <v>161805.2202152152</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.000082398340955e-06</v>
+        <v>7.505723528583823e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.859953703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>116691.4956868855</v>
+        <v>146362.7570929726</v>
       </c>
     </row>
     <row r="8">
@@ -47798,28 +47798,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>94.38811355924157</v>
+        <v>118.3617749674902</v>
       </c>
       <c r="AB8" t="n">
-        <v>129.1459810813829</v>
+        <v>161.9478022634288</v>
       </c>
       <c r="AC8" t="n">
-        <v>116.8204699045328</v>
+        <v>146.4917313106199</v>
       </c>
       <c r="AD8" t="n">
-        <v>94388.11355924158</v>
+        <v>118361.7749674902</v>
       </c>
       <c r="AE8" t="n">
-        <v>129145.9810813829</v>
+        <v>161947.8022634288</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.999868884107944e-06</v>
+        <v>7.505322892136168e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.859953703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>116820.4699045328</v>
+        <v>146491.7313106199</v>
       </c>
     </row>
   </sheetData>
@@ -48095,28 +48095,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.9868967021823</v>
+        <v>230.1636569821711</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.0531860488005</v>
+        <v>314.9200695867651</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.8523205733543</v>
+        <v>284.8645401385912</v>
       </c>
       <c r="AD2" t="n">
-        <v>192986.8967021823</v>
+        <v>230163.6569821711</v>
       </c>
       <c r="AE2" t="n">
-        <v>264053.1860488005</v>
+        <v>314920.0695867651</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.527111668971793e-06</v>
+        <v>4.617119590142376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.923032407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>238852.3205733543</v>
+        <v>284864.5401385912</v>
       </c>
     </row>
     <row r="3">
@@ -48201,28 +48201,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.3180713664127</v>
+        <v>191.1026677282896</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.5637226788814</v>
+        <v>261.4751008404062</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.8453603741652</v>
+        <v>236.520284198883</v>
       </c>
       <c r="AD3" t="n">
-        <v>166318.0713664127</v>
+        <v>191102.6677282896</v>
       </c>
       <c r="AE3" t="n">
-        <v>227563.7226788814</v>
+        <v>261475.1008404062</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.91448934665733e-06</v>
+        <v>5.324871877619827e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.13599537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>205845.3603741652</v>
+        <v>236520.284198883</v>
       </c>
     </row>
     <row r="4">
@@ -48307,28 +48307,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.9949200713456</v>
+        <v>177.0863394967628</v>
       </c>
       <c r="AB4" t="n">
-        <v>191.5472257815137</v>
+        <v>242.2973421972807</v>
       </c>
       <c r="AC4" t="n">
-        <v>173.2662273912</v>
+        <v>219.1728239244981</v>
       </c>
       <c r="AD4" t="n">
-        <v>139994.9200713456</v>
+        <v>177086.3394967628</v>
       </c>
       <c r="AE4" t="n">
-        <v>191547.2257815137</v>
+        <v>242297.3421972807</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.186657343759842e-06</v>
+        <v>5.822132131949272e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.696180555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>173266.2273912</v>
+        <v>219172.8239244981</v>
       </c>
     </row>
     <row r="5">
@@ -48413,28 +48413,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>130.8715051208597</v>
+        <v>155.5707606281649</v>
       </c>
       <c r="AB5" t="n">
-        <v>179.0641669496042</v>
+        <v>212.8587779889314</v>
       </c>
       <c r="AC5" t="n">
-        <v>161.9745341741208</v>
+        <v>192.5438349668999</v>
       </c>
       <c r="AD5" t="n">
-        <v>130871.5051208597</v>
+        <v>155570.7606281649</v>
       </c>
       <c r="AE5" t="n">
-        <v>179064.1669496042</v>
+        <v>212858.7779889314</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.400315170795267e-06</v>
+        <v>6.212492301190976e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.401041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>161974.5341741208</v>
+        <v>192543.8349668999</v>
       </c>
     </row>
     <row r="6">
@@ -48519,28 +48519,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>124.8287864229696</v>
+        <v>149.5280419302749</v>
       </c>
       <c r="AB6" t="n">
-        <v>170.7962526412209</v>
+        <v>204.5908636805481</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.4956980032364</v>
+        <v>185.0649987960154</v>
       </c>
       <c r="AD6" t="n">
-        <v>124828.7864229696</v>
+        <v>149528.0419302749</v>
       </c>
       <c r="AE6" t="n">
-        <v>170796.2526412209</v>
+        <v>204590.8636805481</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.551738042401246e-06</v>
+        <v>6.489147074888426e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.215856481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>154495.6980032364</v>
+        <v>185064.9987960154</v>
       </c>
     </row>
     <row r="7">
@@ -48625,28 +48625,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>119.3114777906257</v>
+        <v>144.010733297931</v>
       </c>
       <c r="AB7" t="n">
-        <v>163.2472275639738</v>
+        <v>197.0418386033009</v>
       </c>
       <c r="AC7" t="n">
-        <v>147.667141284236</v>
+        <v>178.2364420770151</v>
       </c>
       <c r="AD7" t="n">
-        <v>119311.4777906257</v>
+        <v>144010.733297931</v>
       </c>
       <c r="AE7" t="n">
-        <v>163247.2275639737</v>
+        <v>197041.8386033009</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.699901726815159e-06</v>
+        <v>6.759847201936427e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.045138888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>147667.141284236</v>
+        <v>178236.4420770151</v>
       </c>
     </row>
     <row r="8">
@@ -48731,28 +48731,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>102.9145254944425</v>
+        <v>127.6990323477683</v>
       </c>
       <c r="AB8" t="n">
-        <v>140.8121940498655</v>
+        <v>174.7234497418419</v>
       </c>
       <c r="AC8" t="n">
-        <v>127.3732758809399</v>
+        <v>158.0480889244311</v>
       </c>
       <c r="AD8" t="n">
-        <v>102914.5254944425</v>
+        <v>127699.0323477683</v>
       </c>
       <c r="AE8" t="n">
-        <v>140812.1940498655</v>
+        <v>174723.4497418419</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.799694934648412e-06</v>
+        <v>6.94217281125053e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.940972222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>127373.2758809399</v>
+        <v>158048.0889244311</v>
       </c>
     </row>
     <row r="9">
@@ -48837,28 +48837,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>100.2330320367272</v>
+        <v>125.017538890053</v>
       </c>
       <c r="AB9" t="n">
-        <v>137.1432564018791</v>
+        <v>171.0545120938554</v>
       </c>
       <c r="AC9" t="n">
-        <v>124.0544964926897</v>
+        <v>154.729309536181</v>
       </c>
       <c r="AD9" t="n">
-        <v>100233.0320367272</v>
+        <v>125017.538890053</v>
       </c>
       <c r="AE9" t="n">
-        <v>137143.2564018791</v>
+        <v>171054.5120938554</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.874190641895631e-06</v>
+        <v>7.07827902038081e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.862847222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>124054.4964926897</v>
+        <v>154729.309536181</v>
       </c>
     </row>
     <row r="10">
@@ -48943,28 +48943,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>100.0532925318406</v>
+        <v>124.8377993851664</v>
       </c>
       <c r="AB10" t="n">
-        <v>136.897328881746</v>
+        <v>170.8085845737224</v>
       </c>
       <c r="AC10" t="n">
-        <v>123.8320399499167</v>
+        <v>154.506852993408</v>
       </c>
       <c r="AD10" t="n">
-        <v>100053.2925318406</v>
+        <v>124837.7993851664</v>
       </c>
       <c r="AE10" t="n">
-        <v>136897.328881746</v>
+        <v>170808.5845737224</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.878950089858647e-06</v>
+        <v>7.086974694853022e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.859953703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>123832.0399499167</v>
+        <v>154506.852993408</v>
       </c>
     </row>
     <row r="11">
@@ -49049,28 +49049,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>100.2043083818713</v>
+        <v>124.9888152351971</v>
       </c>
       <c r="AB11" t="n">
-        <v>137.1039554301071</v>
+        <v>171.0152111220835</v>
       </c>
       <c r="AC11" t="n">
-        <v>124.0189463505044</v>
+        <v>154.6937593939956</v>
       </c>
       <c r="AD11" t="n">
-        <v>100204.3083818713</v>
+        <v>124988.8152351971</v>
       </c>
       <c r="AE11" t="n">
-        <v>137103.9554301071</v>
+        <v>171015.2111220834</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.876673832137204e-06</v>
+        <v>7.082815894018485e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.859953703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>124018.9463505044</v>
+        <v>154693.7593939956</v>
       </c>
     </row>
   </sheetData>
